--- a/data/542/KOSTAT/Monthly_KOS.xlsx
+++ b/data/542/KOSTAT/Monthly_KOS.xlsx
@@ -13,1350 +13,1371 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="470">
   <si>
     <t>By province</t>
   </si>
   <si>
+    <t>Item</t>
+  </si>
+  <si>
     <t>By production</t>
   </si>
   <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>1985. 01</t>
-  </si>
-  <si>
-    <t>1985. 02</t>
-  </si>
-  <si>
-    <t>1985. 03</t>
-  </si>
-  <si>
-    <t>1985. 04</t>
-  </si>
-  <si>
-    <t>1985. 05</t>
-  </si>
-  <si>
-    <t>1985. 06</t>
-  </si>
-  <si>
-    <t>1985. 07</t>
-  </si>
-  <si>
-    <t>1985. 08</t>
-  </si>
-  <si>
-    <t>1985. 09</t>
-  </si>
-  <si>
-    <t>1985. 10</t>
-  </si>
-  <si>
-    <t>1985. 11</t>
-  </si>
-  <si>
-    <t>1985. 12</t>
-  </si>
-  <si>
-    <t>1986. 01</t>
-  </si>
-  <si>
-    <t>1986. 02</t>
-  </si>
-  <si>
-    <t>1986. 03</t>
-  </si>
-  <si>
-    <t>1986. 04</t>
-  </si>
-  <si>
-    <t>1986. 05</t>
-  </si>
-  <si>
-    <t>1986. 06</t>
-  </si>
-  <si>
-    <t>1986. 07</t>
-  </si>
-  <si>
-    <t>1986. 08</t>
-  </si>
-  <si>
-    <t>1986. 09</t>
-  </si>
-  <si>
-    <t>1986. 10</t>
-  </si>
-  <si>
-    <t>1986. 11</t>
-  </si>
-  <si>
-    <t>1986. 12</t>
-  </si>
-  <si>
-    <t>1987. 01</t>
-  </si>
-  <si>
-    <t>1987. 02</t>
-  </si>
-  <si>
-    <t>1987. 03</t>
-  </si>
-  <si>
-    <t>1987. 04</t>
-  </si>
-  <si>
-    <t>1987. 05</t>
-  </si>
-  <si>
-    <t>1987. 06</t>
-  </si>
-  <si>
-    <t>1987. 07</t>
-  </si>
-  <si>
-    <t>1987. 08</t>
-  </si>
-  <si>
-    <t>1987. 09</t>
-  </si>
-  <si>
-    <t>1987. 10</t>
-  </si>
-  <si>
-    <t>1987. 11</t>
-  </si>
-  <si>
-    <t>1987. 12</t>
-  </si>
-  <si>
-    <t>1988. 01</t>
-  </si>
-  <si>
-    <t>1988. 02</t>
-  </si>
-  <si>
-    <t>1988. 03</t>
-  </si>
-  <si>
-    <t>1988. 04</t>
-  </si>
-  <si>
-    <t>1988. 05</t>
-  </si>
-  <si>
-    <t>1988. 06</t>
-  </si>
-  <si>
-    <t>1988. 07</t>
-  </si>
-  <si>
-    <t>1988. 08</t>
-  </si>
-  <si>
-    <t>1988. 09</t>
-  </si>
-  <si>
-    <t>1988. 10</t>
-  </si>
-  <si>
-    <t>1988. 11</t>
-  </si>
-  <si>
-    <t>1988. 12</t>
-  </si>
-  <si>
-    <t>1989. 01</t>
-  </si>
-  <si>
-    <t>1989. 02</t>
-  </si>
-  <si>
-    <t>1989. 03</t>
-  </si>
-  <si>
-    <t>1989. 04</t>
-  </si>
-  <si>
-    <t>1989. 05</t>
-  </si>
-  <si>
-    <t>1989. 06</t>
-  </si>
-  <si>
-    <t>1989. 07</t>
-  </si>
-  <si>
-    <t>1989. 08</t>
-  </si>
-  <si>
-    <t>1989. 09</t>
-  </si>
-  <si>
-    <t>1989. 10</t>
-  </si>
-  <si>
-    <t>1989. 11</t>
-  </si>
-  <si>
-    <t>1989. 12</t>
-  </si>
-  <si>
-    <t>1990. 01</t>
-  </si>
-  <si>
-    <t>1990. 02</t>
-  </si>
-  <si>
-    <t>1990. 03</t>
-  </si>
-  <si>
-    <t>1990. 04</t>
-  </si>
-  <si>
-    <t>1990. 05</t>
-  </si>
-  <si>
-    <t>1990. 06</t>
-  </si>
-  <si>
-    <t>1990. 07</t>
-  </si>
-  <si>
-    <t>1990. 08</t>
-  </si>
-  <si>
-    <t>1990. 09</t>
-  </si>
-  <si>
-    <t>1990. 10</t>
-  </si>
-  <si>
-    <t>1990. 11</t>
-  </si>
-  <si>
-    <t>1990. 12</t>
-  </si>
-  <si>
-    <t>1991. 01</t>
-  </si>
-  <si>
-    <t>1991. 02</t>
-  </si>
-  <si>
-    <t>1991. 03</t>
-  </si>
-  <si>
-    <t>1991. 04</t>
-  </si>
-  <si>
-    <t>1991. 05</t>
-  </si>
-  <si>
-    <t>1991. 06</t>
-  </si>
-  <si>
-    <t>1991. 07</t>
-  </si>
-  <si>
-    <t>1991. 08</t>
-  </si>
-  <si>
-    <t>1991. 09</t>
-  </si>
-  <si>
-    <t>1991. 10</t>
-  </si>
-  <si>
-    <t>1991. 11</t>
-  </si>
-  <si>
-    <t>1991. 12</t>
-  </si>
-  <si>
-    <t>1992. 01</t>
-  </si>
-  <si>
-    <t>1992. 02</t>
-  </si>
-  <si>
-    <t>1992. 03</t>
-  </si>
-  <si>
-    <t>1992. 04</t>
-  </si>
-  <si>
-    <t>1992. 05</t>
-  </si>
-  <si>
-    <t>1992. 06</t>
-  </si>
-  <si>
-    <t>1992. 07</t>
-  </si>
-  <si>
-    <t>1992. 08</t>
-  </si>
-  <si>
-    <t>1992. 09</t>
-  </si>
-  <si>
-    <t>1992. 10</t>
-  </si>
-  <si>
-    <t>1992. 11</t>
-  </si>
-  <si>
-    <t>1992. 12</t>
-  </si>
-  <si>
-    <t>1993. 01</t>
-  </si>
-  <si>
-    <t>1993. 02</t>
-  </si>
-  <si>
-    <t>1993. 03</t>
-  </si>
-  <si>
-    <t>1993. 04</t>
-  </si>
-  <si>
-    <t>1993. 05</t>
-  </si>
-  <si>
-    <t>1993. 06</t>
-  </si>
-  <si>
-    <t>1993. 07</t>
-  </si>
-  <si>
-    <t>1993. 08</t>
-  </si>
-  <si>
-    <t>1993. 09</t>
-  </si>
-  <si>
-    <t>1993. 10</t>
-  </si>
-  <si>
-    <t>1993. 11</t>
-  </si>
-  <si>
-    <t>1993. 12</t>
-  </si>
-  <si>
-    <t>1994. 01</t>
-  </si>
-  <si>
-    <t>1994. 02</t>
-  </si>
-  <si>
-    <t>1994. 03</t>
-  </si>
-  <si>
-    <t>1994. 04</t>
-  </si>
-  <si>
-    <t>1994. 05</t>
-  </si>
-  <si>
-    <t>1994. 06</t>
-  </si>
-  <si>
-    <t>1994. 07</t>
-  </si>
-  <si>
-    <t>1994. 08</t>
-  </si>
-  <si>
-    <t>1994. 09</t>
-  </si>
-  <si>
-    <t>1994. 10</t>
-  </si>
-  <si>
-    <t>1994. 11</t>
-  </si>
-  <si>
-    <t>1994. 12</t>
-  </si>
-  <si>
-    <t>1995. 01</t>
-  </si>
-  <si>
-    <t>1995. 02</t>
-  </si>
-  <si>
-    <t>1995. 03</t>
-  </si>
-  <si>
-    <t>1995. 04</t>
-  </si>
-  <si>
-    <t>1995. 05</t>
-  </si>
-  <si>
-    <t>1995. 06</t>
-  </si>
-  <si>
-    <t>1995. 07</t>
-  </si>
-  <si>
-    <t>1995. 08</t>
-  </si>
-  <si>
-    <t>1995. 09</t>
-  </si>
-  <si>
-    <t>1995. 10</t>
-  </si>
-  <si>
-    <t>1995. 11</t>
-  </si>
-  <si>
-    <t>1995. 12</t>
-  </si>
-  <si>
-    <t>1996. 01</t>
-  </si>
-  <si>
-    <t>1996. 02</t>
-  </si>
-  <si>
-    <t>1996. 03</t>
-  </si>
-  <si>
-    <t>1996. 04</t>
-  </si>
-  <si>
-    <t>1996. 05</t>
-  </si>
-  <si>
-    <t>1996. 06</t>
-  </si>
-  <si>
-    <t>1996. 07</t>
-  </si>
-  <si>
-    <t>1996. 08</t>
-  </si>
-  <si>
-    <t>1996. 09</t>
-  </si>
-  <si>
-    <t>1996. 10</t>
-  </si>
-  <si>
-    <t>1996. 11</t>
-  </si>
-  <si>
-    <t>1996. 12</t>
-  </si>
-  <si>
-    <t>1997. 01</t>
-  </si>
-  <si>
-    <t>1997. 02</t>
-  </si>
-  <si>
-    <t>1997. 03</t>
-  </si>
-  <si>
-    <t>1997. 04</t>
-  </si>
-  <si>
-    <t>1997. 05</t>
-  </si>
-  <si>
-    <t>1997. 06</t>
-  </si>
-  <si>
-    <t>1997. 07</t>
-  </si>
-  <si>
-    <t>1997. 08</t>
-  </si>
-  <si>
-    <t>1997. 09</t>
-  </si>
-  <si>
-    <t>1997. 10</t>
-  </si>
-  <si>
-    <t>1997. 11</t>
-  </si>
-  <si>
-    <t>1997. 12</t>
-  </si>
-  <si>
-    <t>1998. 01</t>
-  </si>
-  <si>
-    <t>1998. 02</t>
-  </si>
-  <si>
-    <t>1998. 03</t>
-  </si>
-  <si>
-    <t>1998. 04</t>
-  </si>
-  <si>
-    <t>1998. 05</t>
-  </si>
-  <si>
-    <t>1998. 06</t>
-  </si>
-  <si>
-    <t>1998. 07</t>
-  </si>
-  <si>
-    <t>1998. 08</t>
-  </si>
-  <si>
-    <t>1998. 09</t>
-  </si>
-  <si>
-    <t>1998. 10</t>
-  </si>
-  <si>
-    <t>1998. 11</t>
-  </si>
-  <si>
-    <t>1998. 12</t>
-  </si>
-  <si>
-    <t>1999. 01</t>
-  </si>
-  <si>
-    <t>1999. 02</t>
-  </si>
-  <si>
-    <t>1999. 03</t>
-  </si>
-  <si>
-    <t>1999. 04</t>
-  </si>
-  <si>
-    <t>1999. 05</t>
-  </si>
-  <si>
-    <t>1999. 06</t>
-  </si>
-  <si>
-    <t>1999. 07</t>
-  </si>
-  <si>
-    <t>1999. 08</t>
-  </si>
-  <si>
-    <t>1999. 09</t>
-  </si>
-  <si>
-    <t>1999. 10</t>
-  </si>
-  <si>
-    <t>1999. 11</t>
-  </si>
-  <si>
-    <t>1999. 12</t>
-  </si>
-  <si>
-    <t>2000. 01</t>
-  </si>
-  <si>
-    <t>2000. 02</t>
-  </si>
-  <si>
-    <t>2000. 03</t>
-  </si>
-  <si>
-    <t>2000. 04</t>
-  </si>
-  <si>
-    <t>2000. 05</t>
-  </si>
-  <si>
-    <t>2000. 06</t>
-  </si>
-  <si>
-    <t>2000. 07</t>
-  </si>
-  <si>
-    <t>2000. 08</t>
-  </si>
-  <si>
-    <t>2000. 09</t>
-  </si>
-  <si>
-    <t>2000. 10</t>
-  </si>
-  <si>
-    <t>2000. 11</t>
-  </si>
-  <si>
-    <t>2000. 12</t>
-  </si>
-  <si>
-    <t>2001. 01</t>
-  </si>
-  <si>
-    <t>2001. 02</t>
-  </si>
-  <si>
-    <t>2001. 03</t>
-  </si>
-  <si>
-    <t>2001. 04</t>
-  </si>
-  <si>
-    <t>2001. 05</t>
-  </si>
-  <si>
-    <t>2001. 06</t>
-  </si>
-  <si>
-    <t>2001. 07</t>
-  </si>
-  <si>
-    <t>2001. 08</t>
-  </si>
-  <si>
-    <t>2001. 09</t>
-  </si>
-  <si>
-    <t>2001. 10</t>
-  </si>
-  <si>
-    <t>2001. 11</t>
-  </si>
-  <si>
-    <t>2001. 12</t>
-  </si>
-  <si>
-    <t>2002. 01</t>
-  </si>
-  <si>
-    <t>2002. 02</t>
-  </si>
-  <si>
-    <t>2002. 03</t>
-  </si>
-  <si>
-    <t>2002. 04</t>
-  </si>
-  <si>
-    <t>2002. 05</t>
-  </si>
-  <si>
-    <t>2002. 06</t>
-  </si>
-  <si>
-    <t>2002. 07</t>
-  </si>
-  <si>
-    <t>2002. 08</t>
-  </si>
-  <si>
-    <t>2002. 09</t>
-  </si>
-  <si>
-    <t>2002. 10</t>
-  </si>
-  <si>
-    <t>2002. 11</t>
-  </si>
-  <si>
-    <t>2002. 12</t>
-  </si>
-  <si>
-    <t>2003. 01</t>
-  </si>
-  <si>
-    <t>2003. 02</t>
-  </si>
-  <si>
-    <t>2003. 03</t>
-  </si>
-  <si>
-    <t>2003. 04</t>
-  </si>
-  <si>
-    <t>2003. 05</t>
-  </si>
-  <si>
-    <t>2003. 06</t>
-  </si>
-  <si>
-    <t>2003. 07</t>
-  </si>
-  <si>
-    <t>2003. 08</t>
-  </si>
-  <si>
-    <t>2003. 09</t>
-  </si>
-  <si>
-    <t>2003. 10</t>
-  </si>
-  <si>
-    <t>2003. 11</t>
-  </si>
-  <si>
-    <t>2003. 12</t>
-  </si>
-  <si>
-    <t>2004. 01</t>
-  </si>
-  <si>
-    <t>2004. 02</t>
-  </si>
-  <si>
-    <t>2004. 03</t>
-  </si>
-  <si>
-    <t>2004. 04</t>
-  </si>
-  <si>
-    <t>2004. 05</t>
-  </si>
-  <si>
-    <t>2004. 06</t>
-  </si>
-  <si>
-    <t>2004. 07</t>
-  </si>
-  <si>
-    <t>2004. 08</t>
-  </si>
-  <si>
-    <t>2004. 09</t>
-  </si>
-  <si>
-    <t>2004. 10</t>
-  </si>
-  <si>
-    <t>2004. 11</t>
-  </si>
-  <si>
-    <t>2004. 12</t>
-  </si>
-  <si>
-    <t>2005. 01</t>
-  </si>
-  <si>
-    <t>2005. 02</t>
-  </si>
-  <si>
-    <t>2005. 03</t>
-  </si>
-  <si>
-    <t>2005. 04</t>
-  </si>
-  <si>
-    <t>2005. 05</t>
-  </si>
-  <si>
-    <t>2005. 06</t>
-  </si>
-  <si>
-    <t>2005. 07</t>
-  </si>
-  <si>
-    <t>2005. 08</t>
-  </si>
-  <si>
-    <t>2005. 09</t>
-  </si>
-  <si>
-    <t>2005. 10</t>
-  </si>
-  <si>
-    <t>2005. 11</t>
-  </si>
-  <si>
-    <t>2005. 12</t>
-  </si>
-  <si>
-    <t>2006. 01</t>
-  </si>
-  <si>
-    <t>2006. 02</t>
-  </si>
-  <si>
-    <t>2006. 03</t>
-  </si>
-  <si>
-    <t>2006. 04</t>
-  </si>
-  <si>
-    <t>2006. 05</t>
-  </si>
-  <si>
-    <t>2006. 06</t>
-  </si>
-  <si>
-    <t>2006. 07</t>
-  </si>
-  <si>
-    <t>2006. 08</t>
-  </si>
-  <si>
-    <t>2006. 09</t>
-  </si>
-  <si>
-    <t>2006. 10</t>
-  </si>
-  <si>
-    <t>2006. 11</t>
-  </si>
-  <si>
-    <t>2006. 12</t>
-  </si>
-  <si>
-    <t>2007. 01</t>
-  </si>
-  <si>
-    <t>2007. 02</t>
-  </si>
-  <si>
-    <t>2007. 03</t>
-  </si>
-  <si>
-    <t>2007. 04</t>
-  </si>
-  <si>
-    <t>2007. 05</t>
-  </si>
-  <si>
-    <t>2007. 06</t>
-  </si>
-  <si>
-    <t>2007. 07</t>
-  </si>
-  <si>
-    <t>2007. 08</t>
-  </si>
-  <si>
-    <t>2007. 09</t>
-  </si>
-  <si>
-    <t>2007. 10</t>
-  </si>
-  <si>
-    <t>2007. 11</t>
-  </si>
-  <si>
-    <t>2007. 12</t>
-  </si>
-  <si>
-    <t>2008. 01</t>
-  </si>
-  <si>
-    <t>2008. 02</t>
-  </si>
-  <si>
-    <t>2008. 03</t>
-  </si>
-  <si>
-    <t>2008. 04</t>
-  </si>
-  <si>
-    <t>2008. 05</t>
-  </si>
-  <si>
-    <t>2008. 06</t>
-  </si>
-  <si>
-    <t>2008. 07</t>
-  </si>
-  <si>
-    <t>2008. 08</t>
-  </si>
-  <si>
-    <t>2008. 09</t>
-  </si>
-  <si>
-    <t>2008. 10</t>
-  </si>
-  <si>
-    <t>2008. 11</t>
-  </si>
-  <si>
-    <t>2008. 12</t>
-  </si>
-  <si>
-    <t>2009. 01</t>
-  </si>
-  <si>
-    <t>2009. 02</t>
-  </si>
-  <si>
-    <t>2009. 03</t>
-  </si>
-  <si>
-    <t>2009. 04</t>
-  </si>
-  <si>
-    <t>2009. 05</t>
-  </si>
-  <si>
-    <t>2009. 06</t>
-  </si>
-  <si>
-    <t>2009. 07</t>
-  </si>
-  <si>
-    <t>2009. 08</t>
-  </si>
-  <si>
-    <t>2009. 09</t>
-  </si>
-  <si>
-    <t>2009. 10</t>
-  </si>
-  <si>
-    <t>2009. 11</t>
-  </si>
-  <si>
-    <t>2009. 12</t>
-  </si>
-  <si>
-    <t>2010. 01</t>
-  </si>
-  <si>
-    <t>2010. 02</t>
-  </si>
-  <si>
-    <t>2010. 03</t>
-  </si>
-  <si>
-    <t>2010. 04</t>
-  </si>
-  <si>
-    <t>2010. 05</t>
-  </si>
-  <si>
-    <t>2010. 06</t>
-  </si>
-  <si>
-    <t>2010. 07</t>
-  </si>
-  <si>
-    <t>2010. 08</t>
-  </si>
-  <si>
-    <t>2010. 09</t>
-  </si>
-  <si>
-    <t>2010. 10</t>
-  </si>
-  <si>
-    <t>2010. 11</t>
-  </si>
-  <si>
-    <t>2010. 12</t>
-  </si>
-  <si>
-    <t>2011. 01</t>
-  </si>
-  <si>
-    <t>2011. 02</t>
-  </si>
-  <si>
-    <t>2011. 03</t>
-  </si>
-  <si>
-    <t>2011. 04</t>
-  </si>
-  <si>
-    <t>2011. 05</t>
-  </si>
-  <si>
-    <t>2011. 06</t>
-  </si>
-  <si>
-    <t>2011. 07</t>
-  </si>
-  <si>
-    <t>2011. 08</t>
-  </si>
-  <si>
-    <t>2011. 09</t>
-  </si>
-  <si>
-    <t>2011. 10</t>
-  </si>
-  <si>
-    <t>2011. 11</t>
-  </si>
-  <si>
-    <t>2011. 12</t>
-  </si>
-  <si>
-    <t>2012. 01</t>
-  </si>
-  <si>
-    <t>2012. 02</t>
-  </si>
-  <si>
-    <t>2012. 03</t>
-  </si>
-  <si>
-    <t>2012. 04</t>
-  </si>
-  <si>
-    <t>2012. 05</t>
-  </si>
-  <si>
-    <t>2012. 06</t>
-  </si>
-  <si>
-    <t>2012. 07</t>
-  </si>
-  <si>
-    <t>2012. 08</t>
-  </si>
-  <si>
-    <t>2012. 09</t>
-  </si>
-  <si>
-    <t>2012. 10</t>
-  </si>
-  <si>
-    <t>2012. 11</t>
-  </si>
-  <si>
-    <t>2012. 12</t>
-  </si>
-  <si>
-    <t>2013. 01</t>
-  </si>
-  <si>
-    <t>2013. 02</t>
-  </si>
-  <si>
-    <t>2013. 03</t>
-  </si>
-  <si>
-    <t>2013. 04</t>
-  </si>
-  <si>
-    <t>2013. 05</t>
-  </si>
-  <si>
-    <t>2013. 06</t>
-  </si>
-  <si>
-    <t>2013. 07</t>
-  </si>
-  <si>
-    <t>2013. 08</t>
-  </si>
-  <si>
-    <t>2013. 09</t>
-  </si>
-  <si>
-    <t>2013. 10</t>
-  </si>
-  <si>
-    <t>2013. 11</t>
-  </si>
-  <si>
-    <t>2013. 12</t>
-  </si>
-  <si>
-    <t>2014. 01</t>
-  </si>
-  <si>
-    <t>2014. 02</t>
-  </si>
-  <si>
-    <t>2014. 03</t>
-  </si>
-  <si>
-    <t>2014. 04</t>
-  </si>
-  <si>
-    <t>2014. 05</t>
-  </si>
-  <si>
-    <t>2014. 06</t>
-  </si>
-  <si>
-    <t>2014. 07</t>
-  </si>
-  <si>
-    <t>2014. 08</t>
-  </si>
-  <si>
-    <t>2014. 09</t>
-  </si>
-  <si>
-    <t>2014. 10</t>
-  </si>
-  <si>
-    <t>2014. 11</t>
-  </si>
-  <si>
-    <t>2014. 12</t>
-  </si>
-  <si>
-    <t>2015. 01</t>
-  </si>
-  <si>
-    <t>2015. 02</t>
-  </si>
-  <si>
-    <t>2015. 03</t>
-  </si>
-  <si>
-    <t>2015. 04</t>
-  </si>
-  <si>
-    <t>2015. 05</t>
-  </si>
-  <si>
-    <t>2015. 06</t>
-  </si>
-  <si>
-    <t>2015. 07</t>
-  </si>
-  <si>
-    <t>2015. 08</t>
-  </si>
-  <si>
-    <t>2015. 09</t>
-  </si>
-  <si>
-    <t>2015. 10</t>
-  </si>
-  <si>
-    <t>2015. 11</t>
-  </si>
-  <si>
-    <t>2015. 12</t>
-  </si>
-  <si>
-    <t>2016. 01</t>
-  </si>
-  <si>
-    <t>2016. 02</t>
-  </si>
-  <si>
-    <t>2016. 03</t>
-  </si>
-  <si>
-    <t>2016. 04</t>
-  </si>
-  <si>
-    <t>2016. 05</t>
-  </si>
-  <si>
-    <t>2016. 06</t>
-  </si>
-  <si>
-    <t>2016. 07</t>
-  </si>
-  <si>
-    <t>2016. 08</t>
-  </si>
-  <si>
-    <t>2016. 09</t>
-  </si>
-  <si>
-    <t>2016. 10</t>
-  </si>
-  <si>
-    <t>2016. 11</t>
-  </si>
-  <si>
-    <t>2016. 12</t>
-  </si>
-  <si>
-    <t>2017. 01</t>
-  </si>
-  <si>
-    <t>2017. 02</t>
-  </si>
-  <si>
-    <t>2017. 03</t>
-  </si>
-  <si>
-    <t>2017. 04</t>
-  </si>
-  <si>
-    <t>2017. 05</t>
-  </si>
-  <si>
-    <t>2017. 06</t>
-  </si>
-  <si>
-    <t>2017. 07</t>
-  </si>
-  <si>
-    <t>2017. 08</t>
-  </si>
-  <si>
-    <t>2017. 09</t>
-  </si>
-  <si>
-    <t>2017. 10</t>
-  </si>
-  <si>
-    <t>2017. 11</t>
-  </si>
-  <si>
-    <t>2017. 12</t>
-  </si>
-  <si>
-    <t>2018. 01</t>
-  </si>
-  <si>
-    <t>2018. 02</t>
-  </si>
-  <si>
-    <t>2018. 03</t>
-  </si>
-  <si>
-    <t>2018. 04</t>
-  </si>
-  <si>
-    <t>2018. 05</t>
-  </si>
-  <si>
-    <t>2018. 06</t>
-  </si>
-  <si>
-    <t>2018. 07</t>
-  </si>
-  <si>
-    <t>2018. 08</t>
-  </si>
-  <si>
-    <t>2018. 09</t>
-  </si>
-  <si>
-    <t>2018. 10</t>
-  </si>
-  <si>
-    <t>2018. 11</t>
-  </si>
-  <si>
-    <t>2018. 12</t>
-  </si>
-  <si>
-    <t>2019. 01</t>
-  </si>
-  <si>
-    <t>2019. 02</t>
-  </si>
-  <si>
-    <t>2019. 03</t>
-  </si>
-  <si>
-    <t>2019. 04</t>
-  </si>
-  <si>
-    <t>2019. 05</t>
-  </si>
-  <si>
-    <t>2019. 06</t>
-  </si>
-  <si>
-    <t>2019. 07</t>
-  </si>
-  <si>
-    <t>2019. 08</t>
-  </si>
-  <si>
-    <t>2019. 09</t>
-  </si>
-  <si>
-    <t>2019. 10</t>
-  </si>
-  <si>
-    <t>2019. 11</t>
-  </si>
-  <si>
-    <t>2019. 12</t>
-  </si>
-  <si>
-    <t>2020. 01</t>
-  </si>
-  <si>
-    <t>2020. 02</t>
-  </si>
-  <si>
-    <t>2020. 03</t>
-  </si>
-  <si>
-    <t>2020. 04</t>
-  </si>
-  <si>
-    <t>2020. 05</t>
-  </si>
-  <si>
-    <t>2020. 06</t>
-  </si>
-  <si>
-    <t>2020. 07</t>
-  </si>
-  <si>
-    <t>2020. 08</t>
-  </si>
-  <si>
-    <t>2020. 09</t>
-  </si>
-  <si>
-    <t>2020. 10</t>
-  </si>
-  <si>
-    <t>2020. 11</t>
-  </si>
-  <si>
-    <t>2020. 12</t>
-  </si>
-  <si>
-    <t>2021. 01</t>
-  </si>
-  <si>
-    <t>2021. 02</t>
-  </si>
-  <si>
-    <t>2021. 03</t>
-  </si>
-  <si>
-    <t>2021. 04</t>
-  </si>
-  <si>
-    <t>2021. 05</t>
-  </si>
-  <si>
-    <t>2021. 06</t>
-  </si>
-  <si>
-    <t>2021. 07</t>
-  </si>
-  <si>
-    <t>2021. 08</t>
-  </si>
-  <si>
-    <t>2021. 09 p)</t>
-  </si>
-  <si>
-    <t>2021. 10 p)</t>
+    <t>1985.01</t>
+  </si>
+  <si>
+    <t>1985.02</t>
+  </si>
+  <si>
+    <t>1985.03</t>
+  </si>
+  <si>
+    <t>1985.04</t>
+  </si>
+  <si>
+    <t>1985.05</t>
+  </si>
+  <si>
+    <t>1985.06</t>
+  </si>
+  <si>
+    <t>1985.07</t>
+  </si>
+  <si>
+    <t>1985.08</t>
+  </si>
+  <si>
+    <t>1985.09</t>
+  </si>
+  <si>
+    <t>1985.10</t>
+  </si>
+  <si>
+    <t>1985.11</t>
+  </si>
+  <si>
+    <t>1985.12</t>
+  </si>
+  <si>
+    <t>1986.01</t>
+  </si>
+  <si>
+    <t>1986.02</t>
+  </si>
+  <si>
+    <t>1986.03</t>
+  </si>
+  <si>
+    <t>1986.04</t>
+  </si>
+  <si>
+    <t>1986.05</t>
+  </si>
+  <si>
+    <t>1986.06</t>
+  </si>
+  <si>
+    <t>1986.07</t>
+  </si>
+  <si>
+    <t>1986.08</t>
+  </si>
+  <si>
+    <t>1986.09</t>
+  </si>
+  <si>
+    <t>1986.10</t>
+  </si>
+  <si>
+    <t>1986.11</t>
+  </si>
+  <si>
+    <t>1986.12</t>
+  </si>
+  <si>
+    <t>1987.01</t>
+  </si>
+  <si>
+    <t>1987.02</t>
+  </si>
+  <si>
+    <t>1987.03</t>
+  </si>
+  <si>
+    <t>1987.04</t>
+  </si>
+  <si>
+    <t>1987.05</t>
+  </si>
+  <si>
+    <t>1987.06</t>
+  </si>
+  <si>
+    <t>1987.07</t>
+  </si>
+  <si>
+    <t>1987.08</t>
+  </si>
+  <si>
+    <t>1987.09</t>
+  </si>
+  <si>
+    <t>1987.10</t>
+  </si>
+  <si>
+    <t>1987.11</t>
+  </si>
+  <si>
+    <t>1987.12</t>
+  </si>
+  <si>
+    <t>1988.01</t>
+  </si>
+  <si>
+    <t>1988.02</t>
+  </si>
+  <si>
+    <t>1988.03</t>
+  </si>
+  <si>
+    <t>1988.04</t>
+  </si>
+  <si>
+    <t>1988.05</t>
+  </si>
+  <si>
+    <t>1988.06</t>
+  </si>
+  <si>
+    <t>1988.07</t>
+  </si>
+  <si>
+    <t>1988.08</t>
+  </si>
+  <si>
+    <t>1988.09</t>
+  </si>
+  <si>
+    <t>1988.10</t>
+  </si>
+  <si>
+    <t>1988.11</t>
+  </si>
+  <si>
+    <t>1988.12</t>
+  </si>
+  <si>
+    <t>1989.01</t>
+  </si>
+  <si>
+    <t>1989.02</t>
+  </si>
+  <si>
+    <t>1989.03</t>
+  </si>
+  <si>
+    <t>1989.04</t>
+  </si>
+  <si>
+    <t>1989.05</t>
+  </si>
+  <si>
+    <t>1989.06</t>
+  </si>
+  <si>
+    <t>1989.07</t>
+  </si>
+  <si>
+    <t>1989.08</t>
+  </si>
+  <si>
+    <t>1989.09</t>
+  </si>
+  <si>
+    <t>1989.10</t>
+  </si>
+  <si>
+    <t>1989.11</t>
+  </si>
+  <si>
+    <t>1989.12</t>
+  </si>
+  <si>
+    <t>1990.01</t>
+  </si>
+  <si>
+    <t>1990.02</t>
+  </si>
+  <si>
+    <t>1990.03</t>
+  </si>
+  <si>
+    <t>1990.04</t>
+  </si>
+  <si>
+    <t>1990.05</t>
+  </si>
+  <si>
+    <t>1990.06</t>
+  </si>
+  <si>
+    <t>1990.07</t>
+  </si>
+  <si>
+    <t>1990.08</t>
+  </si>
+  <si>
+    <t>1990.09</t>
+  </si>
+  <si>
+    <t>1990.10</t>
+  </si>
+  <si>
+    <t>1990.11</t>
+  </si>
+  <si>
+    <t>1990.12</t>
+  </si>
+  <si>
+    <t>1991.01</t>
+  </si>
+  <si>
+    <t>1991.02</t>
+  </si>
+  <si>
+    <t>1991.03</t>
+  </si>
+  <si>
+    <t>1991.04</t>
+  </si>
+  <si>
+    <t>1991.05</t>
+  </si>
+  <si>
+    <t>1991.06</t>
+  </si>
+  <si>
+    <t>1991.07</t>
+  </si>
+  <si>
+    <t>1991.08</t>
+  </si>
+  <si>
+    <t>1991.09</t>
+  </si>
+  <si>
+    <t>1991.10</t>
+  </si>
+  <si>
+    <t>1991.11</t>
+  </si>
+  <si>
+    <t>1991.12</t>
+  </si>
+  <si>
+    <t>1992.01</t>
+  </si>
+  <si>
+    <t>1992.02</t>
+  </si>
+  <si>
+    <t>1992.03</t>
+  </si>
+  <si>
+    <t>1992.04</t>
+  </si>
+  <si>
+    <t>1992.05</t>
+  </si>
+  <si>
+    <t>1992.06</t>
+  </si>
+  <si>
+    <t>1992.07</t>
+  </si>
+  <si>
+    <t>1992.08</t>
+  </si>
+  <si>
+    <t>1992.09</t>
+  </si>
+  <si>
+    <t>1992.10</t>
+  </si>
+  <si>
+    <t>1992.11</t>
+  </si>
+  <si>
+    <t>1992.12</t>
+  </si>
+  <si>
+    <t>1993.01</t>
+  </si>
+  <si>
+    <t>1993.02</t>
+  </si>
+  <si>
+    <t>1993.03</t>
+  </si>
+  <si>
+    <t>1993.04</t>
+  </si>
+  <si>
+    <t>1993.05</t>
+  </si>
+  <si>
+    <t>1993.06</t>
+  </si>
+  <si>
+    <t>1993.07</t>
+  </si>
+  <si>
+    <t>1993.08</t>
+  </si>
+  <si>
+    <t>1993.09</t>
+  </si>
+  <si>
+    <t>1993.10</t>
+  </si>
+  <si>
+    <t>1993.11</t>
+  </si>
+  <si>
+    <t>1993.12</t>
+  </si>
+  <si>
+    <t>1994.01</t>
+  </si>
+  <si>
+    <t>1994.02</t>
+  </si>
+  <si>
+    <t>1994.03</t>
+  </si>
+  <si>
+    <t>1994.04</t>
+  </si>
+  <si>
+    <t>1994.05</t>
+  </si>
+  <si>
+    <t>1994.06</t>
+  </si>
+  <si>
+    <t>1994.07</t>
+  </si>
+  <si>
+    <t>1994.08</t>
+  </si>
+  <si>
+    <t>1994.09</t>
+  </si>
+  <si>
+    <t>1994.10</t>
+  </si>
+  <si>
+    <t>1994.11</t>
+  </si>
+  <si>
+    <t>1994.12</t>
+  </si>
+  <si>
+    <t>1995.01</t>
+  </si>
+  <si>
+    <t>1995.02</t>
+  </si>
+  <si>
+    <t>1995.03</t>
+  </si>
+  <si>
+    <t>1995.04</t>
+  </si>
+  <si>
+    <t>1995.05</t>
+  </si>
+  <si>
+    <t>1995.06</t>
+  </si>
+  <si>
+    <t>1995.07</t>
+  </si>
+  <si>
+    <t>1995.08</t>
+  </si>
+  <si>
+    <t>1995.09</t>
+  </si>
+  <si>
+    <t>1995.10</t>
+  </si>
+  <si>
+    <t>1995.11</t>
+  </si>
+  <si>
+    <t>1995.12</t>
+  </si>
+  <si>
+    <t>1996.01</t>
+  </si>
+  <si>
+    <t>1996.02</t>
+  </si>
+  <si>
+    <t>1996.03</t>
+  </si>
+  <si>
+    <t>1996.04</t>
+  </si>
+  <si>
+    <t>1996.05</t>
+  </si>
+  <si>
+    <t>1996.06</t>
+  </si>
+  <si>
+    <t>1996.07</t>
+  </si>
+  <si>
+    <t>1996.08</t>
+  </si>
+  <si>
+    <t>1996.09</t>
+  </si>
+  <si>
+    <t>1996.10</t>
+  </si>
+  <si>
+    <t>1996.11</t>
+  </si>
+  <si>
+    <t>1996.12</t>
+  </si>
+  <si>
+    <t>1997.01</t>
+  </si>
+  <si>
+    <t>1997.02</t>
+  </si>
+  <si>
+    <t>1997.03</t>
+  </si>
+  <si>
+    <t>1997.04</t>
+  </si>
+  <si>
+    <t>1997.05</t>
+  </si>
+  <si>
+    <t>1997.06</t>
+  </si>
+  <si>
+    <t>1997.07</t>
+  </si>
+  <si>
+    <t>1997.08</t>
+  </si>
+  <si>
+    <t>1997.09</t>
+  </si>
+  <si>
+    <t>1997.10</t>
+  </si>
+  <si>
+    <t>1997.11</t>
+  </si>
+  <si>
+    <t>1997.12</t>
+  </si>
+  <si>
+    <t>1998.01</t>
+  </si>
+  <si>
+    <t>1998.02</t>
+  </si>
+  <si>
+    <t>1998.03</t>
+  </si>
+  <si>
+    <t>1998.04</t>
+  </si>
+  <si>
+    <t>1998.05</t>
+  </si>
+  <si>
+    <t>1998.06</t>
+  </si>
+  <si>
+    <t>1998.07</t>
+  </si>
+  <si>
+    <t>1998.08</t>
+  </si>
+  <si>
+    <t>1998.09</t>
+  </si>
+  <si>
+    <t>1998.10</t>
+  </si>
+  <si>
+    <t>1998.11</t>
+  </si>
+  <si>
+    <t>1998.12</t>
+  </si>
+  <si>
+    <t>1999.01</t>
+  </si>
+  <si>
+    <t>1999.02</t>
+  </si>
+  <si>
+    <t>1999.03</t>
+  </si>
+  <si>
+    <t>1999.04</t>
+  </si>
+  <si>
+    <t>1999.05</t>
+  </si>
+  <si>
+    <t>1999.06</t>
+  </si>
+  <si>
+    <t>1999.07</t>
+  </si>
+  <si>
+    <t>1999.08</t>
+  </si>
+  <si>
+    <t>1999.09</t>
+  </si>
+  <si>
+    <t>1999.10</t>
+  </si>
+  <si>
+    <t>1999.11</t>
+  </si>
+  <si>
+    <t>1999.12</t>
+  </si>
+  <si>
+    <t>2000.01</t>
+  </si>
+  <si>
+    <t>2000.02</t>
+  </si>
+  <si>
+    <t>2000.03</t>
+  </si>
+  <si>
+    <t>2000.04</t>
+  </si>
+  <si>
+    <t>2000.05</t>
+  </si>
+  <si>
+    <t>2000.06</t>
+  </si>
+  <si>
+    <t>2000.07</t>
+  </si>
+  <si>
+    <t>2000.08</t>
+  </si>
+  <si>
+    <t>2000.09</t>
+  </si>
+  <si>
+    <t>2000.10</t>
+  </si>
+  <si>
+    <t>2000.11</t>
+  </si>
+  <si>
+    <t>2000.12</t>
+  </si>
+  <si>
+    <t>2001.01</t>
+  </si>
+  <si>
+    <t>2001.02</t>
+  </si>
+  <si>
+    <t>2001.03</t>
+  </si>
+  <si>
+    <t>2001.04</t>
+  </si>
+  <si>
+    <t>2001.05</t>
+  </si>
+  <si>
+    <t>2001.06</t>
+  </si>
+  <si>
+    <t>2001.07</t>
+  </si>
+  <si>
+    <t>2001.08</t>
+  </si>
+  <si>
+    <t>2001.09</t>
+  </si>
+  <si>
+    <t>2001.10</t>
+  </si>
+  <si>
+    <t>2001.11</t>
+  </si>
+  <si>
+    <t>2001.12</t>
+  </si>
+  <si>
+    <t>2002.01</t>
+  </si>
+  <si>
+    <t>2002.02</t>
+  </si>
+  <si>
+    <t>2002.03</t>
+  </si>
+  <si>
+    <t>2002.04</t>
+  </si>
+  <si>
+    <t>2002.05</t>
+  </si>
+  <si>
+    <t>2002.06</t>
+  </si>
+  <si>
+    <t>2002.07</t>
+  </si>
+  <si>
+    <t>2002.08</t>
+  </si>
+  <si>
+    <t>2002.09</t>
+  </si>
+  <si>
+    <t>2002.10</t>
+  </si>
+  <si>
+    <t>2002.11</t>
+  </si>
+  <si>
+    <t>2002.12</t>
+  </si>
+  <si>
+    <t>2003.01</t>
+  </si>
+  <si>
+    <t>2003.02</t>
+  </si>
+  <si>
+    <t>2003.03</t>
+  </si>
+  <si>
+    <t>2003.04</t>
+  </si>
+  <si>
+    <t>2003.05</t>
+  </si>
+  <si>
+    <t>2003.06</t>
+  </si>
+  <si>
+    <t>2003.07</t>
+  </si>
+  <si>
+    <t>2003.08</t>
+  </si>
+  <si>
+    <t>2003.09</t>
+  </si>
+  <si>
+    <t>2003.10</t>
+  </si>
+  <si>
+    <t>2003.11</t>
+  </si>
+  <si>
+    <t>2003.12</t>
+  </si>
+  <si>
+    <t>2004.01</t>
+  </si>
+  <si>
+    <t>2004.02</t>
+  </si>
+  <si>
+    <t>2004.03</t>
+  </si>
+  <si>
+    <t>2004.04</t>
+  </si>
+  <si>
+    <t>2004.05</t>
+  </si>
+  <si>
+    <t>2004.06</t>
+  </si>
+  <si>
+    <t>2004.07</t>
+  </si>
+  <si>
+    <t>2004.08</t>
+  </si>
+  <si>
+    <t>2004.09</t>
+  </si>
+  <si>
+    <t>2004.10</t>
+  </si>
+  <si>
+    <t>2004.11</t>
+  </si>
+  <si>
+    <t>2004.12</t>
+  </si>
+  <si>
+    <t>2005.01</t>
+  </si>
+  <si>
+    <t>2005.02</t>
+  </si>
+  <si>
+    <t>2005.03</t>
+  </si>
+  <si>
+    <t>2005.04</t>
+  </si>
+  <si>
+    <t>2005.05</t>
+  </si>
+  <si>
+    <t>2005.06</t>
+  </si>
+  <si>
+    <t>2005.07</t>
+  </si>
+  <si>
+    <t>2005.08</t>
+  </si>
+  <si>
+    <t>2005.09</t>
+  </si>
+  <si>
+    <t>2005.10</t>
+  </si>
+  <si>
+    <t>2005.11</t>
+  </si>
+  <si>
+    <t>2005.12</t>
+  </si>
+  <si>
+    <t>2006.01</t>
+  </si>
+  <si>
+    <t>2006.02</t>
+  </si>
+  <si>
+    <t>2006.03</t>
+  </si>
+  <si>
+    <t>2006.04</t>
+  </si>
+  <si>
+    <t>2006.05</t>
+  </si>
+  <si>
+    <t>2006.06</t>
+  </si>
+  <si>
+    <t>2006.07</t>
+  </si>
+  <si>
+    <t>2006.08</t>
+  </si>
+  <si>
+    <t>2006.09</t>
+  </si>
+  <si>
+    <t>2006.10</t>
+  </si>
+  <si>
+    <t>2006.11</t>
+  </si>
+  <si>
+    <t>2006.12</t>
+  </si>
+  <si>
+    <t>2007.01</t>
+  </si>
+  <si>
+    <t>2007.02</t>
+  </si>
+  <si>
+    <t>2007.03</t>
+  </si>
+  <si>
+    <t>2007.04</t>
+  </si>
+  <si>
+    <t>2007.05</t>
+  </si>
+  <si>
+    <t>2007.06</t>
+  </si>
+  <si>
+    <t>2007.07</t>
+  </si>
+  <si>
+    <t>2007.08</t>
+  </si>
+  <si>
+    <t>2007.09</t>
+  </si>
+  <si>
+    <t>2007.10</t>
+  </si>
+  <si>
+    <t>2007.11</t>
+  </si>
+  <si>
+    <t>2007.12</t>
+  </si>
+  <si>
+    <t>2008.01</t>
+  </si>
+  <si>
+    <t>2008.02</t>
+  </si>
+  <si>
+    <t>2008.03</t>
+  </si>
+  <si>
+    <t>2008.04</t>
+  </si>
+  <si>
+    <t>2008.05</t>
+  </si>
+  <si>
+    <t>2008.06</t>
+  </si>
+  <si>
+    <t>2008.07</t>
+  </si>
+  <si>
+    <t>2008.08</t>
+  </si>
+  <si>
+    <t>2008.09</t>
+  </si>
+  <si>
+    <t>2008.10</t>
+  </si>
+  <si>
+    <t>2008.11</t>
+  </si>
+  <si>
+    <t>2008.12</t>
+  </si>
+  <si>
+    <t>2009.01</t>
+  </si>
+  <si>
+    <t>2009.02</t>
+  </si>
+  <si>
+    <t>2009.03</t>
+  </si>
+  <si>
+    <t>2009.04</t>
+  </si>
+  <si>
+    <t>2009.05</t>
+  </si>
+  <si>
+    <t>2009.06</t>
+  </si>
+  <si>
+    <t>2009.07</t>
+  </si>
+  <si>
+    <t>2009.08</t>
+  </si>
+  <si>
+    <t>2009.09</t>
+  </si>
+  <si>
+    <t>2009.10</t>
+  </si>
+  <si>
+    <t>2009.11</t>
+  </si>
+  <si>
+    <t>2009.12</t>
+  </si>
+  <si>
+    <t>2010.01</t>
+  </si>
+  <si>
+    <t>2010.02</t>
+  </si>
+  <si>
+    <t>2010.03</t>
+  </si>
+  <si>
+    <t>2010.04</t>
+  </si>
+  <si>
+    <t>2010.05</t>
+  </si>
+  <si>
+    <t>2010.06</t>
+  </si>
+  <si>
+    <t>2010.07</t>
+  </si>
+  <si>
+    <t>2010.08</t>
+  </si>
+  <si>
+    <t>2010.09</t>
+  </si>
+  <si>
+    <t>2010.10</t>
+  </si>
+  <si>
+    <t>2010.11</t>
+  </si>
+  <si>
+    <t>2010.12</t>
+  </si>
+  <si>
+    <t>2011.01</t>
+  </si>
+  <si>
+    <t>2011.02</t>
+  </si>
+  <si>
+    <t>2011.03</t>
+  </si>
+  <si>
+    <t>2011.04</t>
+  </si>
+  <si>
+    <t>2011.05</t>
+  </si>
+  <si>
+    <t>2011.06</t>
+  </si>
+  <si>
+    <t>2011.07</t>
+  </si>
+  <si>
+    <t>2011.08</t>
+  </si>
+  <si>
+    <t>2011.09</t>
+  </si>
+  <si>
+    <t>2011.10</t>
+  </si>
+  <si>
+    <t>2011.11</t>
+  </si>
+  <si>
+    <t>2011.12</t>
+  </si>
+  <si>
+    <t>2012.01</t>
+  </si>
+  <si>
+    <t>2012.02</t>
+  </si>
+  <si>
+    <t>2012.03</t>
+  </si>
+  <si>
+    <t>2012.04</t>
+  </si>
+  <si>
+    <t>2012.05</t>
+  </si>
+  <si>
+    <t>2012.06</t>
+  </si>
+  <si>
+    <t>2012.07</t>
+  </si>
+  <si>
+    <t>2012.08</t>
+  </si>
+  <si>
+    <t>2012.09</t>
+  </si>
+  <si>
+    <t>2012.10</t>
+  </si>
+  <si>
+    <t>2012.11</t>
+  </si>
+  <si>
+    <t>2012.12</t>
+  </si>
+  <si>
+    <t>2013.01</t>
+  </si>
+  <si>
+    <t>2013.02</t>
+  </si>
+  <si>
+    <t>2013.03</t>
+  </si>
+  <si>
+    <t>2013.04</t>
+  </si>
+  <si>
+    <t>2013.05</t>
+  </si>
+  <si>
+    <t>2013.06</t>
+  </si>
+  <si>
+    <t>2013.07</t>
+  </si>
+  <si>
+    <t>2013.08</t>
+  </si>
+  <si>
+    <t>2013.09</t>
+  </si>
+  <si>
+    <t>2013.10</t>
+  </si>
+  <si>
+    <t>2013.11</t>
+  </si>
+  <si>
+    <t>2013.12</t>
+  </si>
+  <si>
+    <t>2014.01</t>
+  </si>
+  <si>
+    <t>2014.02</t>
+  </si>
+  <si>
+    <t>2014.03</t>
+  </si>
+  <si>
+    <t>2014.04</t>
+  </si>
+  <si>
+    <t>2014.05</t>
+  </si>
+  <si>
+    <t>2014.06</t>
+  </si>
+  <si>
+    <t>2014.07</t>
+  </si>
+  <si>
+    <t>2014.08</t>
+  </si>
+  <si>
+    <t>2014.09</t>
+  </si>
+  <si>
+    <t>2014.10</t>
+  </si>
+  <si>
+    <t>2014.11</t>
+  </si>
+  <si>
+    <t>2014.12</t>
+  </si>
+  <si>
+    <t>2015.01</t>
+  </si>
+  <si>
+    <t>2015.02</t>
+  </si>
+  <si>
+    <t>2015.03</t>
+  </si>
+  <si>
+    <t>2015.04</t>
+  </si>
+  <si>
+    <t>2015.05</t>
+  </si>
+  <si>
+    <t>2015.06</t>
+  </si>
+  <si>
+    <t>2015.07</t>
+  </si>
+  <si>
+    <t>2015.08</t>
+  </si>
+  <si>
+    <t>2015.09</t>
+  </si>
+  <si>
+    <t>2015.10</t>
+  </si>
+  <si>
+    <t>2015.11</t>
+  </si>
+  <si>
+    <t>2015.12</t>
+  </si>
+  <si>
+    <t>2016.01</t>
+  </si>
+  <si>
+    <t>2016.02</t>
+  </si>
+  <si>
+    <t>2016.03</t>
+  </si>
+  <si>
+    <t>2016.04</t>
+  </si>
+  <si>
+    <t>2016.05</t>
+  </si>
+  <si>
+    <t>2016.06</t>
+  </si>
+  <si>
+    <t>2016.07</t>
+  </si>
+  <si>
+    <t>2016.08</t>
+  </si>
+  <si>
+    <t>2016.09</t>
+  </si>
+  <si>
+    <t>2016.10</t>
+  </si>
+  <si>
+    <t>2016.11</t>
+  </si>
+  <si>
+    <t>2016.12</t>
+  </si>
+  <si>
+    <t>2017.01</t>
+  </si>
+  <si>
+    <t>2017.02</t>
+  </si>
+  <si>
+    <t>2017.03</t>
+  </si>
+  <si>
+    <t>2017.04</t>
+  </si>
+  <si>
+    <t>2017.05</t>
+  </si>
+  <si>
+    <t>2017.06</t>
+  </si>
+  <si>
+    <t>2017.07</t>
+  </si>
+  <si>
+    <t>2017.08</t>
+  </si>
+  <si>
+    <t>2017.09</t>
+  </si>
+  <si>
+    <t>2017.10</t>
+  </si>
+  <si>
+    <t>2017.11</t>
+  </si>
+  <si>
+    <t>2017.12</t>
+  </si>
+  <si>
+    <t>2018.01</t>
+  </si>
+  <si>
+    <t>2018.02</t>
+  </si>
+  <si>
+    <t>2018.03</t>
+  </si>
+  <si>
+    <t>2018.04</t>
+  </si>
+  <si>
+    <t>2018.05</t>
+  </si>
+  <si>
+    <t>2018.06</t>
+  </si>
+  <si>
+    <t>2018.07</t>
+  </si>
+  <si>
+    <t>2018.08</t>
+  </si>
+  <si>
+    <t>2018.09</t>
+  </si>
+  <si>
+    <t>2018.10</t>
+  </si>
+  <si>
+    <t>2018.11</t>
+  </si>
+  <si>
+    <t>2018.12</t>
+  </si>
+  <si>
+    <t>2019.01</t>
+  </si>
+  <si>
+    <t>2019.02</t>
+  </si>
+  <si>
+    <t>2019.03</t>
+  </si>
+  <si>
+    <t>2019.04</t>
+  </si>
+  <si>
+    <t>2019.05</t>
+  </si>
+  <si>
+    <t>2019.06</t>
+  </si>
+  <si>
+    <t>2019.07</t>
+  </si>
+  <si>
+    <t>2019.08</t>
+  </si>
+  <si>
+    <t>2019.09</t>
+  </si>
+  <si>
+    <t>2019.10</t>
+  </si>
+  <si>
+    <t>2019.11</t>
+  </si>
+  <si>
+    <t>2019.12</t>
+  </si>
+  <si>
+    <t>2020.01</t>
+  </si>
+  <si>
+    <t>2020.02</t>
+  </si>
+  <si>
+    <t>2020.03</t>
+  </si>
+  <si>
+    <t>2020.04</t>
+  </si>
+  <si>
+    <t>2020.05</t>
+  </si>
+  <si>
+    <t>2020.06</t>
+  </si>
+  <si>
+    <t>2020.07</t>
+  </si>
+  <si>
+    <t>2020.08</t>
+  </si>
+  <si>
+    <t>2020.09</t>
+  </si>
+  <si>
+    <t>2020.10</t>
+  </si>
+  <si>
+    <t>2020.11</t>
+  </si>
+  <si>
+    <t>2020.12</t>
+  </si>
+  <si>
+    <t>2021.01</t>
+  </si>
+  <si>
+    <t>2021.02</t>
+  </si>
+  <si>
+    <t>2021.03</t>
+  </si>
+  <si>
+    <t>2021.04</t>
+  </si>
+  <si>
+    <t>2021.05</t>
+  </si>
+  <si>
+    <t>2021.06</t>
+  </si>
+  <si>
+    <t>2021.07</t>
+  </si>
+  <si>
+    <t>2021.08</t>
+  </si>
+  <si>
+    <t>2021.09</t>
+  </si>
+  <si>
+    <t>2021.10</t>
+  </si>
+  <si>
+    <t>2021.11</t>
+  </si>
+  <si>
+    <t>2021.12</t>
+  </si>
+  <si>
+    <t>2022.01 p)</t>
+  </si>
+  <si>
+    <t>2022.02 p)</t>
   </si>
   <si>
     <t>Whole country</t>
   </si>
   <si>
+    <t>Production index(original index)</t>
+  </si>
+  <si>
     <t>Capital goods</t>
   </si>
   <si>
-    <t>Production index(original index)</t>
+    <t/>
+  </si>
+  <si>
+    <t>Intemediate goods</t>
+  </si>
+  <si>
+    <t>Consumers' goods</t>
   </si>
   <si>
     <t>○ Table ID</t>
@@ -1374,7 +1395,7 @@
     <t>○ Search Period</t>
   </si>
   <si>
-    <t>[Monthly] 198501~202110  </t>
+    <t xml:space="preserve">[Monthly] 198501~202202  </t>
   </si>
   <si>
     <t>○ Source</t>
@@ -1386,16 +1407,13 @@
     <t>○ Download Date</t>
   </si>
   <si>
-    <t>2021.12.28 13:40</t>
+    <t>2022.03.31 16:25</t>
   </si>
   <si>
     <t>○ Table URL</t>
   </si>
   <si>
     <t>https://kosis.kr/statHtml/statHtml.do?orgId=101&amp;tblId=DT_1F01503&amp;language=en&amp;conn_path=I3</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>* The URL for a statistical table may change in case of the KOSIS revision.</t>
@@ -1554,30 +1572,30 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="12.6953125" customWidth="true"/>
-    <col min="2" max="2" width="12.6953125" customWidth="true"/>
-    <col min="3" max="3" width="31.25" customWidth="true"/>
-    <col min="4" max="4" width="9.375" customWidth="true"/>
-    <col min="5" max="5" width="11.71875" customWidth="true"/>
-    <col min="6" max="6" width="11.71875" customWidth="true"/>
+    <col min="2" max="2" width="31.25" customWidth="true"/>
+    <col min="3" max="3" width="16.6015625" customWidth="true"/>
+    <col min="4" max="4" width="14.0625" customWidth="true"/>
+    <col min="5" max="5" width="14.0625" customWidth="true"/>
+    <col min="6" max="6" width="14.0625" customWidth="true"/>
     <col min="7" max="7" width="14.0625" customWidth="true"/>
-    <col min="8" max="8" width="9.375" customWidth="true"/>
+    <col min="8" max="8" width="14.0625" customWidth="true"/>
     <col min="9" max="9" width="14.0625" customWidth="true"/>
-    <col min="10" max="10" width="11.71875" customWidth="true"/>
-    <col min="11" max="11" width="11.71875" customWidth="true"/>
-    <col min="12" max="12" width="11.71875" customWidth="true"/>
-    <col min="13" max="13" width="11.71875" customWidth="true"/>
-    <col min="14" max="14" width="7.8125" customWidth="true"/>
-    <col min="15" max="15" width="11.71875" customWidth="true"/>
+    <col min="10" max="10" width="14.0625" customWidth="true"/>
+    <col min="11" max="11" width="14.0625" customWidth="true"/>
+    <col min="12" max="12" width="14.0625" customWidth="true"/>
+    <col min="13" max="13" width="14.0625" customWidth="true"/>
+    <col min="14" max="14" width="14.0625" customWidth="true"/>
+    <col min="15" max="15" width="14.0625" customWidth="true"/>
     <col min="16" max="16" width="14.0625" customWidth="true"/>
     <col min="17" max="17" width="14.0625" customWidth="true"/>
-    <col min="18" max="18" width="11.71875" customWidth="true"/>
+    <col min="18" max="18" width="14.0625" customWidth="true"/>
     <col min="19" max="19" width="14.0625" customWidth="true"/>
     <col min="20" max="20" width="14.0625" customWidth="true"/>
     <col min="21" max="21" width="14.0625" customWidth="true"/>
     <col min="22" max="22" width="14.0625" customWidth="true"/>
     <col min="23" max="23" width="14.0625" customWidth="true"/>
     <col min="24" max="24" width="14.0625" customWidth="true"/>
-    <col min="25" max="25" width="11.71875" customWidth="true"/>
+    <col min="25" max="25" width="14.0625" customWidth="true"/>
     <col min="26" max="26" width="14.0625" customWidth="true"/>
     <col min="27" max="27" width="14.0625" customWidth="true"/>
     <col min="28" max="28" width="14.0625" customWidth="true"/>
@@ -1586,12 +1604,12 @@
     <col min="31" max="31" width="14.0625" customWidth="true"/>
     <col min="32" max="32" width="14.0625" customWidth="true"/>
     <col min="33" max="33" width="14.0625" customWidth="true"/>
-    <col min="34" max="34" width="11.71875" customWidth="true"/>
+    <col min="34" max="34" width="14.0625" customWidth="true"/>
     <col min="35" max="35" width="14.0625" customWidth="true"/>
     <col min="36" max="36" width="14.0625" customWidth="true"/>
     <col min="37" max="37" width="14.0625" customWidth="true"/>
     <col min="38" max="38" width="14.0625" customWidth="true"/>
-    <col min="39" max="39" width="11.71875" customWidth="true"/>
+    <col min="39" max="39" width="14.0625" customWidth="true"/>
     <col min="40" max="40" width="14.0625" customWidth="true"/>
     <col min="41" max="41" width="14.0625" customWidth="true"/>
     <col min="42" max="42" width="14.0625" customWidth="true"/>
@@ -1601,23 +1619,23 @@
     <col min="46" max="46" width="14.0625" customWidth="true"/>
     <col min="47" max="47" width="14.0625" customWidth="true"/>
     <col min="48" max="48" width="14.0625" customWidth="true"/>
-    <col min="49" max="49" width="11.71875" customWidth="true"/>
+    <col min="49" max="49" width="14.0625" customWidth="true"/>
     <col min="50" max="50" width="14.0625" customWidth="true"/>
     <col min="51" max="51" width="14.0625" customWidth="true"/>
-    <col min="52" max="52" width="11.71875" customWidth="true"/>
+    <col min="52" max="52" width="14.0625" customWidth="true"/>
     <col min="53" max="53" width="14.0625" customWidth="true"/>
     <col min="54" max="54" width="14.0625" customWidth="true"/>
     <col min="55" max="55" width="14.0625" customWidth="true"/>
     <col min="56" max="56" width="14.0625" customWidth="true"/>
-    <col min="57" max="57" width="9.375" customWidth="true"/>
+    <col min="57" max="57" width="14.0625" customWidth="true"/>
     <col min="58" max="58" width="14.0625" customWidth="true"/>
     <col min="59" max="59" width="14.0625" customWidth="true"/>
     <col min="60" max="60" width="14.0625" customWidth="true"/>
     <col min="61" max="61" width="14.0625" customWidth="true"/>
-    <col min="62" max="62" width="11.71875" customWidth="true"/>
-    <col min="63" max="63" width="11.71875" customWidth="true"/>
+    <col min="62" max="62" width="14.0625" customWidth="true"/>
+    <col min="63" max="63" width="14.0625" customWidth="true"/>
     <col min="64" max="64" width="14.0625" customWidth="true"/>
-    <col min="65" max="65" width="11.71875" customWidth="true"/>
+    <col min="65" max="65" width="14.0625" customWidth="true"/>
     <col min="66" max="66" width="14.0625" customWidth="true"/>
     <col min="67" max="67" width="14.0625" customWidth="true"/>
     <col min="68" max="68" width="14.0625" customWidth="true"/>
@@ -1629,11 +1647,11 @@
     <col min="74" max="74" width="14.0625" customWidth="true"/>
     <col min="75" max="75" width="14.0625" customWidth="true"/>
     <col min="76" max="76" width="14.0625" customWidth="true"/>
-    <col min="77" max="77" width="11.71875" customWidth="true"/>
+    <col min="77" max="77" width="14.0625" customWidth="true"/>
     <col min="78" max="78" width="14.0625" customWidth="true"/>
     <col min="79" max="79" width="14.0625" customWidth="true"/>
     <col min="80" max="80" width="14.0625" customWidth="true"/>
-    <col min="81" max="81" width="11.71875" customWidth="true"/>
+    <col min="81" max="81" width="14.0625" customWidth="true"/>
     <col min="82" max="82" width="14.0625" customWidth="true"/>
     <col min="83" max="83" width="14.0625" customWidth="true"/>
     <col min="84" max="84" width="14.0625" customWidth="true"/>
@@ -1658,13 +1676,13 @@
     <col min="103" max="103" width="14.0625" customWidth="true"/>
     <col min="104" max="104" width="14.0625" customWidth="true"/>
     <col min="105" max="105" width="14.0625" customWidth="true"/>
-    <col min="106" max="106" width="11.71875" customWidth="true"/>
+    <col min="106" max="106" width="14.0625" customWidth="true"/>
     <col min="107" max="107" width="14.0625" customWidth="true"/>
     <col min="108" max="108" width="14.0625" customWidth="true"/>
     <col min="109" max="109" width="14.0625" customWidth="true"/>
     <col min="110" max="110" width="14.0625" customWidth="true"/>
-    <col min="111" max="111" width="11.71875" customWidth="true"/>
-    <col min="112" max="112" width="11.71875" customWidth="true"/>
+    <col min="111" max="111" width="14.0625" customWidth="true"/>
+    <col min="112" max="112" width="14.0625" customWidth="true"/>
     <col min="113" max="113" width="14.0625" customWidth="true"/>
     <col min="114" max="114" width="14.0625" customWidth="true"/>
     <col min="115" max="115" width="14.0625" customWidth="true"/>
@@ -1676,7 +1694,7 @@
     <col min="121" max="121" width="14.0625" customWidth="true"/>
     <col min="122" max="122" width="14.0625" customWidth="true"/>
     <col min="123" max="123" width="14.0625" customWidth="true"/>
-    <col min="124" max="124" width="11.71875" customWidth="true"/>
+    <col min="124" max="124" width="14.0625" customWidth="true"/>
     <col min="125" max="125" width="14.0625" customWidth="true"/>
     <col min="126" max="126" width="14.0625" customWidth="true"/>
     <col min="127" max="127" width="14.0625" customWidth="true"/>
@@ -1709,7 +1727,7 @@
     <col min="154" max="154" width="14.0625" customWidth="true"/>
     <col min="155" max="155" width="14.0625" customWidth="true"/>
     <col min="156" max="156" width="14.0625" customWidth="true"/>
-    <col min="157" max="157" width="11.71875" customWidth="true"/>
+    <col min="157" max="157" width="14.0625" customWidth="true"/>
     <col min="158" max="158" width="14.0625" customWidth="true"/>
     <col min="159" max="159" width="14.0625" customWidth="true"/>
     <col min="160" max="160" width="14.0625" customWidth="true"/>
@@ -1724,18 +1742,18 @@
     <col min="169" max="169" width="14.0625" customWidth="true"/>
     <col min="170" max="170" width="14.0625" customWidth="true"/>
     <col min="171" max="171" width="14.0625" customWidth="true"/>
-    <col min="172" max="172" width="11.71875" customWidth="true"/>
+    <col min="172" max="172" width="14.0625" customWidth="true"/>
     <col min="173" max="173" width="14.0625" customWidth="true"/>
-    <col min="174" max="174" width="11.71875" customWidth="true"/>
+    <col min="174" max="174" width="14.0625" customWidth="true"/>
     <col min="175" max="175" width="14.0625" customWidth="true"/>
     <col min="176" max="176" width="14.0625" customWidth="true"/>
     <col min="177" max="177" width="14.0625" customWidth="true"/>
     <col min="178" max="178" width="14.0625" customWidth="true"/>
-    <col min="179" max="179" width="11.71875" customWidth="true"/>
+    <col min="179" max="179" width="14.0625" customWidth="true"/>
     <col min="180" max="180" width="14.0625" customWidth="true"/>
     <col min="181" max="181" width="14.0625" customWidth="true"/>
-    <col min="182" max="182" width="11.71875" customWidth="true"/>
-    <col min="183" max="183" width="11.71875" customWidth="true"/>
+    <col min="182" max="182" width="14.0625" customWidth="true"/>
+    <col min="183" max="183" width="14.0625" customWidth="true"/>
     <col min="184" max="184" width="14.0625" customWidth="true"/>
     <col min="185" max="185" width="14.0625" customWidth="true"/>
     <col min="186" max="186" width="14.0625" customWidth="true"/>
@@ -1745,8 +1763,8 @@
     <col min="190" max="190" width="14.0625" customWidth="true"/>
     <col min="191" max="191" width="14.0625" customWidth="true"/>
     <col min="192" max="192" width="14.0625" customWidth="true"/>
-    <col min="193" max="193" width="9.375" customWidth="true"/>
-    <col min="194" max="194" width="11.71875" customWidth="true"/>
+    <col min="193" max="193" width="14.0625" customWidth="true"/>
+    <col min="194" max="194" width="14.0625" customWidth="true"/>
     <col min="195" max="195" width="14.0625" customWidth="true"/>
     <col min="196" max="196" width="14.0625" customWidth="true"/>
     <col min="197" max="197" width="14.0625" customWidth="true"/>
@@ -1760,13 +1778,13 @@
     <col min="205" max="205" width="14.0625" customWidth="true"/>
     <col min="206" max="206" width="14.0625" customWidth="true"/>
     <col min="207" max="207" width="14.0625" customWidth="true"/>
-    <col min="208" max="208" width="11.71875" customWidth="true"/>
+    <col min="208" max="208" width="14.0625" customWidth="true"/>
     <col min="209" max="209" width="14.0625" customWidth="true"/>
     <col min="210" max="210" width="14.0625" customWidth="true"/>
     <col min="211" max="211" width="14.0625" customWidth="true"/>
     <col min="212" max="212" width="14.0625" customWidth="true"/>
     <col min="213" max="213" width="14.0625" customWidth="true"/>
-    <col min="214" max="214" width="11.71875" customWidth="true"/>
+    <col min="214" max="214" width="14.0625" customWidth="true"/>
     <col min="215" max="215" width="14.0625" customWidth="true"/>
     <col min="216" max="216" width="14.0625" customWidth="true"/>
     <col min="217" max="217" width="14.0625" customWidth="true"/>
@@ -1792,7 +1810,7 @@
     <col min="237" max="237" width="14.0625" customWidth="true"/>
     <col min="238" max="238" width="14.0625" customWidth="true"/>
     <col min="239" max="239" width="14.0625" customWidth="true"/>
-    <col min="240" max="240" width="11.71875" customWidth="true"/>
+    <col min="240" max="240" width="14.0625" customWidth="true"/>
     <col min="241" max="241" width="14.0625" customWidth="true"/>
     <col min="242" max="242" width="14.0625" customWidth="true"/>
     <col min="243" max="243" width="14.0625" customWidth="true"/>
@@ -1806,7 +1824,7 @@
     <col min="251" max="251" width="14.0625" customWidth="true"/>
     <col min="252" max="252" width="14.0625" customWidth="true"/>
     <col min="253" max="253" width="14.0625" customWidth="true"/>
-    <col min="254" max="254" width="14.0625" customWidth="true"/>
+    <col min="254" max="254" width="16.40625" customWidth="true"/>
     <col min="255" max="255" width="14.0625" customWidth="true"/>
     <col min="256" max="256" width="14.0625" customWidth="true"/>
     <col min="257" max="257" width="14.0625" customWidth="true"/>
@@ -1815,10 +1833,10 @@
     <col min="260" max="260" width="14.0625" customWidth="true"/>
     <col min="261" max="261" width="14.0625" customWidth="true"/>
     <col min="262" max="262" width="14.0625" customWidth="true"/>
-    <col min="263" max="263" width="11.71875" customWidth="true"/>
-    <col min="264" max="264" width="14.0625" customWidth="true"/>
+    <col min="263" max="263" width="14.0625" customWidth="true"/>
+    <col min="264" max="264" width="16.40625" customWidth="true"/>
     <col min="265" max="265" width="14.0625" customWidth="true"/>
-    <col min="266" max="266" width="14.0625" customWidth="true"/>
+    <col min="266" max="266" width="16.40625" customWidth="true"/>
     <col min="267" max="267" width="14.0625" customWidth="true"/>
     <col min="268" max="268" width="14.0625" customWidth="true"/>
     <col min="269" max="269" width="14.0625" customWidth="true"/>
@@ -1829,16 +1847,16 @@
     <col min="274" max="274" width="14.0625" customWidth="true"/>
     <col min="275" max="275" width="14.0625" customWidth="true"/>
     <col min="276" max="276" width="14.0625" customWidth="true"/>
-    <col min="277" max="277" width="14.0625" customWidth="true"/>
-    <col min="278" max="278" width="14.0625" customWidth="true"/>
+    <col min="277" max="277" width="16.40625" customWidth="true"/>
+    <col min="278" max="278" width="16.40625" customWidth="true"/>
     <col min="279" max="279" width="16.40625" customWidth="true"/>
-    <col min="280" max="280" width="14.0625" customWidth="true"/>
+    <col min="280" max="280" width="16.40625" customWidth="true"/>
     <col min="281" max="281" width="14.0625" customWidth="true"/>
     <col min="282" max="282" width="16.40625" customWidth="true"/>
     <col min="283" max="283" width="16.40625" customWidth="true"/>
     <col min="284" max="284" width="14.0625" customWidth="true"/>
     <col min="285" max="285" width="14.0625" customWidth="true"/>
-    <col min="286" max="286" width="11.71875" customWidth="true"/>
+    <col min="286" max="286" width="14.0625" customWidth="true"/>
     <col min="287" max="287" width="14.0625" customWidth="true"/>
     <col min="288" max="288" width="14.0625" customWidth="true"/>
     <col min="289" max="289" width="16.40625" customWidth="true"/>
@@ -1854,13 +1872,13 @@
     <col min="299" max="299" width="14.0625" customWidth="true"/>
     <col min="300" max="300" width="16.40625" customWidth="true"/>
     <col min="301" max="301" width="14.0625" customWidth="true"/>
-    <col min="302" max="302" width="14.0625" customWidth="true"/>
+    <col min="302" max="302" width="16.40625" customWidth="true"/>
     <col min="303" max="303" width="16.40625" customWidth="true"/>
     <col min="304" max="304" width="14.0625" customWidth="true"/>
     <col min="305" max="305" width="14.0625" customWidth="true"/>
     <col min="306" max="306" width="16.40625" customWidth="true"/>
     <col min="307" max="307" width="16.40625" customWidth="true"/>
-    <col min="308" max="308" width="14.0625" customWidth="true"/>
+    <col min="308" max="308" width="16.40625" customWidth="true"/>
     <col min="309" max="309" width="16.40625" customWidth="true"/>
     <col min="310" max="310" width="16.40625" customWidth="true"/>
     <col min="311" max="311" width="16.40625" customWidth="true"/>
@@ -1876,7 +1894,7 @@
     <col min="321" max="321" width="16.40625" customWidth="true"/>
     <col min="322" max="322" width="16.40625" customWidth="true"/>
     <col min="323" max="323" width="16.40625" customWidth="true"/>
-    <col min="324" max="324" width="14.0625" customWidth="true"/>
+    <col min="324" max="324" width="16.40625" customWidth="true"/>
     <col min="325" max="325" width="16.40625" customWidth="true"/>
     <col min="326" max="326" width="16.40625" customWidth="true"/>
     <col min="327" max="327" width="16.40625" customWidth="true"/>
@@ -1884,7 +1902,7 @@
     <col min="329" max="329" width="16.40625" customWidth="true"/>
     <col min="330" max="330" width="16.40625" customWidth="true"/>
     <col min="331" max="331" width="16.40625" customWidth="true"/>
-    <col min="332" max="332" width="14.0625" customWidth="true"/>
+    <col min="332" max="332" width="16.40625" customWidth="true"/>
     <col min="333" max="333" width="16.40625" customWidth="true"/>
     <col min="334" max="334" width="16.40625" customWidth="true"/>
     <col min="335" max="335" width="16.40625" customWidth="true"/>
@@ -1897,17 +1915,17 @@
     <col min="342" max="342" width="16.40625" customWidth="true"/>
     <col min="343" max="343" width="16.40625" customWidth="true"/>
     <col min="344" max="344" width="16.40625" customWidth="true"/>
-    <col min="345" max="345" width="14.0625" customWidth="true"/>
+    <col min="345" max="345" width="16.40625" customWidth="true"/>
     <col min="346" max="346" width="16.40625" customWidth="true"/>
     <col min="347" max="347" width="14.0625" customWidth="true"/>
     <col min="348" max="348" width="14.0625" customWidth="true"/>
     <col min="349" max="349" width="16.40625" customWidth="true"/>
     <col min="350" max="350" width="16.40625" customWidth="true"/>
     <col min="351" max="351" width="16.40625" customWidth="true"/>
-    <col min="352" max="352" width="14.0625" customWidth="true"/>
+    <col min="352" max="352" width="16.40625" customWidth="true"/>
     <col min="353" max="353" width="14.0625" customWidth="true"/>
-    <col min="354" max="354" width="14.0625" customWidth="true"/>
-    <col min="355" max="355" width="14.0625" customWidth="true"/>
+    <col min="354" max="354" width="16.40625" customWidth="true"/>
+    <col min="355" max="355" width="16.40625" customWidth="true"/>
     <col min="356" max="356" width="16.40625" customWidth="true"/>
     <col min="357" max="357" width="16.40625" customWidth="true"/>
     <col min="358" max="358" width="16.40625" customWidth="true"/>
@@ -1916,88 +1934,92 @@
     <col min="361" max="361" width="16.40625" customWidth="true"/>
     <col min="362" max="362" width="16.40625" customWidth="true"/>
     <col min="363" max="363" width="16.40625" customWidth="true"/>
-    <col min="364" max="364" width="9.375" customWidth="true"/>
-    <col min="365" max="365" width="7.8125" customWidth="true"/>
+    <col min="364" max="364" width="11.71875" customWidth="true"/>
+    <col min="365" max="365" width="9.375" customWidth="true"/>
     <col min="366" max="366" width="11.71875" customWidth="true"/>
     <col min="367" max="367" width="11.71875" customWidth="true"/>
     <col min="368" max="368" width="9.375" customWidth="true"/>
     <col min="369" max="369" width="11.71875" customWidth="true"/>
-    <col min="370" max="370" width="9.375" customWidth="true"/>
+    <col min="370" max="370" width="11.71875" customWidth="true"/>
     <col min="371" max="371" width="9.375" customWidth="true"/>
-    <col min="372" max="372" width="9.375" customWidth="true"/>
-    <col min="373" max="373" width="9.375" customWidth="true"/>
-    <col min="374" max="374" width="9.375" customWidth="true"/>
+    <col min="372" max="372" width="11.71875" customWidth="true"/>
+    <col min="373" max="373" width="11.71875" customWidth="true"/>
+    <col min="374" max="374" width="11.71875" customWidth="true"/>
     <col min="375" max="375" width="11.71875" customWidth="true"/>
-    <col min="376" max="376" width="9.375" customWidth="true"/>
+    <col min="376" max="376" width="11.71875" customWidth="true"/>
     <col min="377" max="377" width="9.375" customWidth="true"/>
     <col min="378" max="378" width="11.71875" customWidth="true"/>
-    <col min="379" max="379" width="9.375" customWidth="true"/>
-    <col min="380" max="380" width="9.375" customWidth="true"/>
+    <col min="379" max="379" width="11.71875" customWidth="true"/>
+    <col min="380" max="380" width="11.71875" customWidth="true"/>
     <col min="381" max="381" width="11.71875" customWidth="true"/>
-    <col min="382" max="382" width="9.375" customWidth="true"/>
-    <col min="383" max="383" width="7.8125" customWidth="true"/>
-    <col min="384" max="384" width="7.8125" customWidth="true"/>
-    <col min="385" max="385" width="9.375" customWidth="true"/>
+    <col min="382" max="382" width="11.71875" customWidth="true"/>
+    <col min="383" max="383" width="11.71875" customWidth="true"/>
+    <col min="384" max="384" width="11.71875" customWidth="true"/>
+    <col min="385" max="385" width="11.71875" customWidth="true"/>
     <col min="386" max="386" width="11.71875" customWidth="true"/>
     <col min="387" max="387" width="11.71875" customWidth="true"/>
-    <col min="388" max="388" width="9.375" customWidth="true"/>
-    <col min="389" max="389" width="9.375" customWidth="true"/>
+    <col min="388" max="388" width="11.71875" customWidth="true"/>
+    <col min="389" max="389" width="11.71875" customWidth="true"/>
     <col min="390" max="390" width="11.71875" customWidth="true"/>
     <col min="391" max="391" width="11.71875" customWidth="true"/>
     <col min="392" max="392" width="11.71875" customWidth="true"/>
     <col min="393" max="393" width="11.71875" customWidth="true"/>
     <col min="394" max="394" width="11.71875" customWidth="true"/>
-    <col min="395" max="395" width="9.375" customWidth="true"/>
+    <col min="395" max="395" width="11.71875" customWidth="true"/>
     <col min="396" max="396" width="11.71875" customWidth="true"/>
-    <col min="397" max="397" width="9.375" customWidth="true"/>
+    <col min="397" max="397" width="11.71875" customWidth="true"/>
     <col min="398" max="398" width="11.71875" customWidth="true"/>
     <col min="399" max="399" width="11.71875" customWidth="true"/>
-    <col min="400" max="400" width="9.375" customWidth="true"/>
+    <col min="400" max="400" width="11.71875" customWidth="true"/>
     <col min="401" max="401" width="9.375" customWidth="true"/>
     <col min="402" max="402" width="11.71875" customWidth="true"/>
     <col min="403" max="403" width="11.71875" customWidth="true"/>
     <col min="404" max="404" width="11.71875" customWidth="true"/>
     <col min="405" max="405" width="11.71875" customWidth="true"/>
-    <col min="406" max="406" width="9.375" customWidth="true"/>
-    <col min="407" max="407" width="9.375" customWidth="true"/>
-    <col min="408" max="408" width="9.375" customWidth="true"/>
-    <col min="409" max="409" width="9.375" customWidth="true"/>
-    <col min="410" max="410" width="9.375" customWidth="true"/>
+    <col min="406" max="406" width="11.71875" customWidth="true"/>
+    <col min="407" max="407" width="11.71875" customWidth="true"/>
+    <col min="408" max="408" width="11.71875" customWidth="true"/>
+    <col min="409" max="409" width="11.71875" customWidth="true"/>
+    <col min="410" max="410" width="11.71875" customWidth="true"/>
     <col min="411" max="411" width="11.71875" customWidth="true"/>
-    <col min="412" max="412" width="9.375" customWidth="true"/>
+    <col min="412" max="412" width="11.71875" customWidth="true"/>
     <col min="413" max="413" width="9.375" customWidth="true"/>
-    <col min="414" max="414" width="9.375" customWidth="true"/>
-    <col min="415" max="415" width="9.375" customWidth="true"/>
-    <col min="416" max="416" width="9.375" customWidth="true"/>
-    <col min="417" max="417" width="9.375" customWidth="true"/>
-    <col min="418" max="418" width="9.375" customWidth="true"/>
-    <col min="419" max="419" width="9.375" customWidth="true"/>
-    <col min="420" max="420" width="9.375" customWidth="true"/>
-    <col min="421" max="421" width="7.8125" customWidth="true"/>
-    <col min="422" max="422" width="9.375" customWidth="true"/>
+    <col min="414" max="414" width="11.71875" customWidth="true"/>
+    <col min="415" max="415" width="11.71875" customWidth="true"/>
+    <col min="416" max="416" width="11.71875" customWidth="true"/>
+    <col min="417" max="417" width="11.71875" customWidth="true"/>
+    <col min="418" max="418" width="11.71875" customWidth="true"/>
+    <col min="419" max="419" width="11.71875" customWidth="true"/>
+    <col min="420" max="420" width="11.71875" customWidth="true"/>
+    <col min="421" max="421" width="11.71875" customWidth="true"/>
+    <col min="422" max="422" width="11.71875" customWidth="true"/>
     <col min="423" max="423" width="11.71875" customWidth="true"/>
-    <col min="424" max="424" width="9.375" customWidth="true"/>
-    <col min="425" max="425" width="9.375" customWidth="true"/>
+    <col min="424" max="424" width="11.71875" customWidth="true"/>
+    <col min="425" max="425" width="11.71875" customWidth="true"/>
     <col min="426" max="426" width="11.71875" customWidth="true"/>
-    <col min="427" max="427" width="9.375" customWidth="true"/>
-    <col min="428" max="428" width="7.8125" customWidth="true"/>
-    <col min="429" max="429" width="9.375" customWidth="true"/>
-    <col min="430" max="430" width="9.375" customWidth="true"/>
-    <col min="431" max="431" width="9.375" customWidth="true"/>
-    <col min="432" max="432" width="9.375" customWidth="true"/>
-    <col min="433" max="433" width="9.375" customWidth="true"/>
-    <col min="434" max="434" width="9.375" customWidth="true"/>
+    <col min="427" max="427" width="11.71875" customWidth="true"/>
+    <col min="428" max="428" width="11.71875" customWidth="true"/>
+    <col min="429" max="429" width="11.71875" customWidth="true"/>
+    <col min="430" max="430" width="11.71875" customWidth="true"/>
+    <col min="431" max="431" width="11.71875" customWidth="true"/>
+    <col min="432" max="432" width="11.71875" customWidth="true"/>
+    <col min="433" max="433" width="11.71875" customWidth="true"/>
+    <col min="434" max="434" width="11.71875" customWidth="true"/>
     <col min="435" max="435" width="11.71875" customWidth="true"/>
-    <col min="436" max="436" width="9.375" customWidth="true"/>
-    <col min="437" max="437" width="7.8125" customWidth="true"/>
+    <col min="436" max="436" width="11.71875" customWidth="true"/>
+    <col min="437" max="437" width="11.71875" customWidth="true"/>
     <col min="438" max="438" width="11.71875" customWidth="true"/>
     <col min="439" max="439" width="11.71875" customWidth="true"/>
-    <col min="440" max="440" width="9.375" customWidth="true"/>
+    <col min="440" max="440" width="11.71875" customWidth="true"/>
     <col min="441" max="441" width="11.71875" customWidth="true"/>
     <col min="442" max="442" width="11.71875" customWidth="true"/>
-    <col min="443" max="443" width="9.375" customWidth="true"/>
-    <col min="444" max="444" width="10.7421875" customWidth="true"/>
-    <col min="445" max="445" width="10.7421875" customWidth="true"/>
+    <col min="443" max="443" width="11.71875" customWidth="true"/>
+    <col min="444" max="444" width="11.71875" customWidth="true"/>
+    <col min="445" max="445" width="11.71875" customWidth="true"/>
+    <col min="446" max="446" width="11.71875" customWidth="true"/>
+    <col min="447" max="447" width="11.71875" customWidth="true"/>
+    <col min="448" max="448" width="11.71875" customWidth="true"/>
+    <col min="449" max="449" width="11.71875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.0" customHeight="true">
@@ -3336,18 +3358,30 @@
       <c r="QC1" s="2" t="s">
         <v>444</v>
       </c>
+      <c r="QD1" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="QE1" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="QF1" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="QG1" s="2" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="2" ht="20.0" customHeight="true">
-      <c r="A2" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="D2" s="5" t="n">
+      <c r="A2" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="D2" s="6" t="n">
         <v>8.14</v>
       </c>
       <c r="E2" s="6" t="n">
@@ -3359,7 +3393,7 @@
       <c r="G2" s="6" t="n">
         <v>10.053</v>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H2" s="6" t="n">
         <v>9.39</v>
       </c>
       <c r="I2" s="6" t="n">
@@ -3377,10 +3411,10 @@
       <c r="M2" s="6" t="n">
         <v>9.082</v>
       </c>
-      <c r="N2" s="4" t="n">
+      <c r="N2" s="6" t="n">
         <v>9.1</v>
       </c>
-      <c r="O2" s="5" t="n">
+      <c r="O2" s="6" t="n">
         <v>10.61</v>
       </c>
       <c r="P2" s="6" t="n">
@@ -3389,7 +3423,7 @@
       <c r="Q2" s="6" t="n">
         <v>10.398</v>
       </c>
-      <c r="R2" s="5" t="n">
+      <c r="R2" s="6" t="n">
         <v>10.91</v>
       </c>
       <c r="S2" s="6" t="n">
@@ -3410,7 +3444,7 @@
       <c r="X2" s="6" t="n">
         <v>11.716</v>
       </c>
-      <c r="Y2" s="5" t="n">
+      <c r="Y2" s="6" t="n">
         <v>12.27</v>
       </c>
       <c r="Z2" s="6" t="n">
@@ -3437,7 +3471,7 @@
       <c r="AG2" s="6" t="n">
         <v>15.676</v>
       </c>
-      <c r="AH2" s="5" t="n">
+      <c r="AH2" s="6" t="n">
         <v>15.37</v>
       </c>
       <c r="AI2" s="6" t="n">
@@ -3452,7 +3486,7 @@
       <c r="AL2" s="6" t="n">
         <v>17.208</v>
       </c>
-      <c r="AM2" s="5" t="n">
+      <c r="AM2" s="6" t="n">
         <v>17.22</v>
       </c>
       <c r="AN2" s="6" t="n">
@@ -3482,7 +3516,7 @@
       <c r="AV2" s="6" t="n">
         <v>16.693</v>
       </c>
-      <c r="AW2" s="5" t="n">
+      <c r="AW2" s="6" t="n">
         <v>17.97</v>
       </c>
       <c r="AX2" s="6" t="n">
@@ -3491,7 +3525,7 @@
       <c r="AY2" s="6" t="n">
         <v>19.263</v>
       </c>
-      <c r="AZ2" s="5" t="n">
+      <c r="AZ2" s="6" t="n">
         <v>16.01</v>
       </c>
       <c r="BA2" s="6" t="n">
@@ -3506,7 +3540,7 @@
       <c r="BD2" s="6" t="n">
         <v>18.125</v>
       </c>
-      <c r="BE2" s="4" t="n">
+      <c r="BE2" s="6" t="n">
         <v>18.4</v>
       </c>
       <c r="BF2" s="6" t="n">
@@ -3521,16 +3555,16 @@
       <c r="BI2" s="6" t="n">
         <v>19.674</v>
       </c>
-      <c r="BJ2" s="5" t="n">
+      <c r="BJ2" s="6" t="n">
         <v>22.15</v>
       </c>
-      <c r="BK2" s="5" t="n">
+      <c r="BK2" s="6" t="n">
         <v>21.68</v>
       </c>
       <c r="BL2" s="6" t="n">
         <v>19.196</v>
       </c>
-      <c r="BM2" s="5" t="n">
+      <c r="BM2" s="6" t="n">
         <v>20.99</v>
       </c>
       <c r="BN2" s="6" t="n">
@@ -3566,7 +3600,7 @@
       <c r="BX2" s="6" t="n">
         <v>23.349</v>
       </c>
-      <c r="BY2" s="5" t="n">
+      <c r="BY2" s="6" t="n">
         <v>21.41</v>
       </c>
       <c r="BZ2" s="6" t="n">
@@ -3578,7 +3612,7 @@
       <c r="CB2" s="6" t="n">
         <v>26.693</v>
       </c>
-      <c r="CC2" s="5" t="n">
+      <c r="CC2" s="6" t="n">
         <v>24.42</v>
       </c>
       <c r="CD2" s="6" t="n">
@@ -3653,7 +3687,7 @@
       <c r="DA2" s="6" t="n">
         <v>29.346</v>
       </c>
-      <c r="DB2" s="5" t="n">
+      <c r="DB2" s="6" t="n">
         <v>25.65</v>
       </c>
       <c r="DC2" s="6" t="n">
@@ -3668,10 +3702,10 @@
       <c r="DF2" s="6" t="n">
         <v>30.914</v>
       </c>
-      <c r="DG2" s="5" t="n">
+      <c r="DG2" s="6" t="n">
         <v>32.53</v>
       </c>
-      <c r="DH2" s="5" t="n">
+      <c r="DH2" s="6" t="n">
         <v>30.17</v>
       </c>
       <c r="DI2" s="6" t="n">
@@ -3707,7 +3741,7 @@
       <c r="DS2" s="6" t="n">
         <v>41.221</v>
       </c>
-      <c r="DT2" s="5" t="n">
+      <c r="DT2" s="6" t="n">
         <v>36.21</v>
       </c>
       <c r="DU2" s="6" t="n">
@@ -3806,7 +3840,7 @@
       <c r="EZ2" s="6" t="n">
         <v>47.958</v>
       </c>
-      <c r="FA2" s="5" t="n">
+      <c r="FA2" s="6" t="n">
         <v>49.91</v>
       </c>
       <c r="FB2" s="6" t="n">
@@ -3851,13 +3885,13 @@
       <c r="FO2" s="6" t="n">
         <v>43.884</v>
       </c>
-      <c r="FP2" s="5" t="n">
+      <c r="FP2" s="6" t="n">
         <v>41.63</v>
       </c>
       <c r="FQ2" s="6" t="n">
         <v>40.205</v>
       </c>
-      <c r="FR2" s="5" t="n">
+      <c r="FR2" s="6" t="n">
         <v>52.12</v>
       </c>
       <c r="FS2" s="6" t="n">
@@ -3872,7 +3906,7 @@
       <c r="FV2" s="6" t="n">
         <v>55.133</v>
       </c>
-      <c r="FW2" s="5" t="n">
+      <c r="FW2" s="6" t="n">
         <v>51.61</v>
       </c>
       <c r="FX2" s="6" t="n">
@@ -3881,10 +3915,10 @@
       <c r="FY2" s="6" t="n">
         <v>60.794</v>
       </c>
-      <c r="FZ2" s="5" t="n">
+      <c r="FZ2" s="6" t="n">
         <v>66.97</v>
       </c>
-      <c r="GA2" s="5" t="n">
+      <c r="GA2" s="6" t="n">
         <v>70.25</v>
       </c>
       <c r="GB2" s="6" t="n">
@@ -3914,10 +3948,10 @@
       <c r="GJ2" s="6" t="n">
         <v>68.267</v>
       </c>
-      <c r="GK2" s="4" t="n">
+      <c r="GK2" s="6" t="n">
         <v>72.6</v>
       </c>
-      <c r="GL2" s="5" t="n">
+      <c r="GL2" s="6" t="n">
         <v>72.41</v>
       </c>
       <c r="GM2" s="6" t="n">
@@ -3959,7 +3993,7 @@
       <c r="GY2" s="6" t="n">
         <v>77.293</v>
       </c>
-      <c r="GZ2" s="5" t="n">
+      <c r="GZ2" s="6" t="n">
         <v>71.01</v>
       </c>
       <c r="HA2" s="6" t="n">
@@ -3977,7 +4011,7 @@
       <c r="HE2" s="6" t="n">
         <v>74.009</v>
       </c>
-      <c r="HF2" s="5" t="n">
+      <c r="HF2" s="6" t="n">
         <v>73.72</v>
       </c>
       <c r="HG2" s="6" t="n">
@@ -4055,7 +4089,7 @@
       <c r="IE2" s="6" t="n">
         <v>70.328</v>
       </c>
-      <c r="IF2" s="5" t="n">
+      <c r="IF2" s="6" t="n">
         <v>74.37</v>
       </c>
       <c r="IG2" s="6" t="n">
@@ -4124,7 +4158,7 @@
       <c r="JB2" s="6" t="n">
         <v>77.973</v>
       </c>
-      <c r="JC2" s="5" t="n">
+      <c r="JC2" s="6" t="n">
         <v>78.44</v>
       </c>
       <c r="JD2" s="6" t="n">
@@ -4193,7 +4227,7 @@
       <c r="JY2" s="6" t="n">
         <v>98.049</v>
       </c>
-      <c r="JZ2" s="5" t="n">
+      <c r="JZ2" s="6" t="n">
         <v>99.45</v>
       </c>
       <c r="KA2" s="6" t="n">
@@ -4241,7 +4275,7 @@
       <c r="KO2" s="6" t="n">
         <v>91.824</v>
       </c>
-      <c r="KP2" s="5" t="n">
+      <c r="KP2" s="6" t="n">
         <v>100.15</v>
       </c>
       <c r="KQ2" s="6" t="n">
@@ -4259,7 +4293,7 @@
       <c r="KU2" s="6" t="n">
         <v>108.379</v>
       </c>
-      <c r="KV2" s="5" t="n">
+      <c r="KV2" s="6" t="n">
         <v>109.14</v>
       </c>
       <c r="KW2" s="6" t="n">
@@ -4307,7 +4341,7 @@
       <c r="LK2" s="6" t="n">
         <v>108.487</v>
       </c>
-      <c r="LL2" s="5" t="n">
+      <c r="LL2" s="6" t="n">
         <v>111.97</v>
       </c>
       <c r="LM2" s="6" t="n">
@@ -4331,7 +4365,7 @@
       <c r="LS2" s="6" t="n">
         <v>121.219</v>
       </c>
-      <c r="LT2" s="5" t="n">
+      <c r="LT2" s="6" t="n">
         <v>125.68</v>
       </c>
       <c r="LU2" s="6" t="n">
@@ -4370,7 +4404,7 @@
       <c r="MF2" s="6" t="n">
         <v>114.363</v>
       </c>
-      <c r="MG2" s="5" t="n">
+      <c r="MG2" s="6" t="n">
         <v>117.41</v>
       </c>
       <c r="MH2" s="6" t="n">
@@ -4397,10 +4431,10 @@
       <c r="MO2" s="6" t="n">
         <v>98.694</v>
       </c>
-      <c r="MP2" s="5" t="n">
+      <c r="MP2" s="6" t="n">
         <v>109.14</v>
       </c>
-      <c r="MQ2" s="5" t="n">
+      <c r="MQ2" s="6" t="n">
         <v>111.97</v>
       </c>
       <c r="MR2" s="6" t="n">
@@ -4430,44 +4464,44 @@
       <c r="MZ2" s="4" t="n">
         <v>98.1</v>
       </c>
-      <c r="NA2" s="3" t="n">
+      <c r="NA2" s="4" t="n">
         <v>92.0</v>
       </c>
       <c r="NB2" s="4" t="n">
-        <v>108.8</v>
+        <v>108.9</v>
       </c>
       <c r="NC2" s="4" t="n">
-        <v>104.8</v>
+        <v>105.0</v>
       </c>
       <c r="ND2" s="4" t="n">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="NE2" s="4" t="n">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="NF2" s="4" t="n">
         <v>99.7</v>
       </c>
       <c r="NG2" s="4" t="n">
-        <v>91.4</v>
+        <v>91.5</v>
       </c>
       <c r="NH2" s="4" t="n">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="NI2" s="4" t="n">
-        <v>98.1</v>
+        <v>98.0</v>
       </c>
       <c r="NJ2" s="4" t="n">
-        <v>98.7</v>
+        <v>98.5</v>
       </c>
       <c r="NK2" s="4" t="n">
-        <v>107.9</v>
+        <v>107.7</v>
       </c>
       <c r="NL2" s="4" t="n">
-        <v>90.5</v>
+        <v>90.4</v>
       </c>
       <c r="NM2" s="4" t="n">
-        <v>84.5</v>
+        <v>84.4</v>
       </c>
       <c r="NN2" s="4" t="n">
         <v>104.1</v>
@@ -4482,31 +4516,31 @@
         <v>102.8</v>
       </c>
       <c r="NR2" s="4" t="n">
-        <v>95.9</v>
-      </c>
-      <c r="NS2" s="3" t="n">
-        <v>88.0</v>
-      </c>
-      <c r="NT2" s="3" t="n">
-        <v>92.0</v>
+        <v>95.8</v>
+      </c>
+      <c r="NS2" s="4" t="n">
+        <v>87.9</v>
+      </c>
+      <c r="NT2" s="4" t="n">
+        <v>91.7</v>
       </c>
       <c r="NU2" s="4" t="n">
-        <v>97.2</v>
+        <v>97.0</v>
       </c>
       <c r="NV2" s="4" t="n">
-        <v>106.1</v>
+        <v>106.0</v>
       </c>
       <c r="NW2" s="4" t="n">
-        <v>120.3</v>
+        <v>120.1</v>
       </c>
       <c r="NX2" s="4" t="n">
-        <v>89.9</v>
+        <v>89.7</v>
       </c>
       <c r="NY2" s="4" t="n">
-        <v>93.9</v>
+        <v>93.7</v>
       </c>
       <c r="NZ2" s="4" t="n">
-        <v>110.6</v>
+        <v>110.4</v>
       </c>
       <c r="OA2" s="4" t="n">
         <v>105.8</v>
@@ -4515,10 +4549,10 @@
         <v>106.9</v>
       </c>
       <c r="OC2" s="4" t="n">
-        <v>114.6</v>
+        <v>114.7</v>
       </c>
       <c r="OD2" s="4" t="n">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="OE2" s="4" t="n">
         <v>90.5</v>
@@ -4530,46 +4564,46 @@
         <v>85.1</v>
       </c>
       <c r="OH2" s="4" t="n">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="OI2" s="4" t="n">
-        <v>105.6</v>
+        <v>105.5</v>
       </c>
       <c r="OJ2" s="4" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="OK2" s="4" t="n">
-        <v>86.4</v>
+        <v>86.5</v>
       </c>
       <c r="OL2" s="4" t="n">
         <v>104.5</v>
       </c>
       <c r="OM2" s="4" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="ON2" s="4" t="n">
         <v>101.7</v>
       </c>
       <c r="OO2" s="4" t="n">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="OP2" s="4" t="n">
-        <v>96.4</v>
+        <v>96.2</v>
       </c>
       <c r="OQ2" s="4" t="n">
-        <v>88.5</v>
+        <v>88.4</v>
       </c>
       <c r="OR2" s="4" t="n">
-        <v>86.2</v>
+        <v>85.8</v>
       </c>
       <c r="OS2" s="4" t="n">
-        <v>94.1</v>
+        <v>94.0</v>
       </c>
       <c r="OT2" s="4" t="n">
-        <v>94.4</v>
+        <v>94.3</v>
       </c>
       <c r="OU2" s="4" t="n">
-        <v>101.2</v>
+        <v>100.6</v>
       </c>
       <c r="OV2" s="4" t="n">
         <v>87.9</v>
@@ -4578,58 +4612,58 @@
         <v>74.7</v>
       </c>
       <c r="OX2" s="4" t="n">
-        <v>94.5</v>
+        <v>94.4</v>
       </c>
       <c r="OY2" s="4" t="n">
-        <v>94.6</v>
+        <v>94.4</v>
       </c>
       <c r="OZ2" s="4" t="n">
-        <v>95.2</v>
+        <v>95.1</v>
       </c>
       <c r="PA2" s="4" t="n">
-        <v>93.3</v>
+        <v>92.9</v>
       </c>
       <c r="PB2" s="4" t="n">
         <v>93.3</v>
       </c>
       <c r="PC2" s="4" t="n">
-        <v>84.8</v>
+        <v>84.7</v>
       </c>
       <c r="PD2" s="4" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="PE2" s="3" t="n">
-        <v>93.0</v>
+        <v>88.5</v>
+      </c>
+      <c r="PE2" s="4" t="n">
+        <v>92.9</v>
       </c>
       <c r="PF2" s="4" t="n">
-        <v>94.4</v>
+        <v>94.5</v>
       </c>
       <c r="PG2" s="4" t="n">
-        <v>110.7</v>
+        <v>110.3</v>
       </c>
       <c r="PH2" s="4" t="n">
-        <v>82.7</v>
+        <v>82.4</v>
       </c>
       <c r="PI2" s="4" t="n">
-        <v>85.9</v>
+        <v>85.5</v>
       </c>
       <c r="PJ2" s="4" t="n">
-        <v>100.8</v>
+        <v>100.5</v>
       </c>
       <c r="PK2" s="4" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="PL2" s="3" t="n">
-        <v>90.0</v>
+        <v>96.8</v>
+      </c>
+      <c r="PL2" s="4" t="n">
+        <v>89.6</v>
       </c>
       <c r="PM2" s="4" t="n">
-        <v>97.7</v>
+        <v>97.4</v>
       </c>
       <c r="PN2" s="4" t="n">
-        <v>96.3</v>
+        <v>96.1</v>
       </c>
       <c r="PO2" s="4" t="n">
-        <v>83.4</v>
+        <v>83.3</v>
       </c>
       <c r="PP2" s="4" t="n">
         <v>95.5</v>
@@ -4638,40 +4672,2750 @@
         <v>91.4</v>
       </c>
       <c r="PR2" s="4" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="PS2" s="4" t="n">
+        <v>114.4</v>
+      </c>
+      <c r="PT2" s="4" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="PU2" s="4" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="PV2" s="4" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="PW2" s="4" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="PX2" s="4" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="PY2" s="4" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="PZ2" s="4" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="QA2" s="4" t="n">
+        <v>90.6</v>
+      </c>
+      <c r="QB2" s="4" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="QC2" s="4" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="QD2" s="4" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="QE2" s="4" t="n">
+        <v>120.5</v>
+      </c>
+      <c r="QF2" s="4" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="QG2" s="4" t="n">
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="3" ht="20.0" customHeight="true">
+      <c r="A3" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>6.904</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>6.525</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>7.501</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>7.549</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>7.727</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>7.343</v>
+      </c>
+      <c r="J3" s="6" t="n">
+        <v>7.434</v>
+      </c>
+      <c r="K3" s="6" t="n">
+        <v>7.394</v>
+      </c>
+      <c r="L3" s="6" t="n">
+        <v>7.348</v>
+      </c>
+      <c r="M3" s="6" t="n">
+        <v>7.701</v>
+      </c>
+      <c r="N3" s="6" t="n">
+        <v>7.803</v>
+      </c>
+      <c r="O3" s="6" t="n">
+        <v>8.034</v>
+      </c>
+      <c r="P3" s="6" t="n">
+        <v>7.885</v>
+      </c>
+      <c r="Q3" s="6" t="n">
+        <v>7.407</v>
+      </c>
+      <c r="R3" s="6" t="n">
+        <v>8.676</v>
+      </c>
+      <c r="S3" s="6" t="n">
+        <v>8.791</v>
+      </c>
+      <c r="T3" s="6" t="n">
+        <v>9.225</v>
+      </c>
+      <c r="U3" s="6" t="n">
+        <v>9.032</v>
+      </c>
+      <c r="V3" s="6" t="n">
+        <v>8.998</v>
+      </c>
+      <c r="W3" s="6" t="n">
+        <v>8.809</v>
+      </c>
+      <c r="X3" s="6" t="n">
+        <v>8.755</v>
+      </c>
+      <c r="Y3" s="6" t="n">
+        <v>9.264</v>
+      </c>
+      <c r="Z3" s="6" t="n">
+        <v>9.296</v>
+      </c>
+      <c r="AA3" s="6" t="n">
+        <v>9.644</v>
+      </c>
+      <c r="AB3" s="6" t="n">
+        <v>9.012</v>
+      </c>
+      <c r="AC3" s="6" t="n">
+        <v>9.078</v>
+      </c>
+      <c r="AD3" s="6" t="n">
+        <v>10.245</v>
+      </c>
+      <c r="AE3" s="6" t="n">
+        <v>10.404</v>
+      </c>
+      <c r="AF3" s="6" t="n">
+        <v>10.534</v>
+      </c>
+      <c r="AG3" s="6" t="n">
+        <v>10.863</v>
+      </c>
+      <c r="AH3" s="6" t="n">
+        <v>10.631</v>
+      </c>
+      <c r="AI3" s="6" t="n">
+        <v>9.512</v>
+      </c>
+      <c r="AJ3" s="6" t="n">
+        <v>10.618</v>
+      </c>
+      <c r="AK3" s="6" t="n">
+        <v>10.532</v>
+      </c>
+      <c r="AL3" s="6" t="n">
+        <v>11.102</v>
+      </c>
+      <c r="AM3" s="6" t="n">
+        <v>11.483</v>
+      </c>
+      <c r="AN3" s="6" t="n">
+        <v>11.469</v>
+      </c>
+      <c r="AO3" s="6" t="n">
+        <v>10.731</v>
+      </c>
+      <c r="AP3" s="6" t="n">
+        <v>12.279</v>
+      </c>
+      <c r="AQ3" s="6" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="AR3" s="6" t="n">
+        <v>11.681</v>
+      </c>
+      <c r="AS3" s="6" t="n">
+        <v>11.486</v>
+      </c>
+      <c r="AT3" s="6" t="n">
+        <v>12.012</v>
+      </c>
+      <c r="AU3" s="6" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="AV3" s="6" t="n">
+        <v>11.627</v>
+      </c>
+      <c r="AW3" s="6" t="n">
+        <v>12.295</v>
+      </c>
+      <c r="AX3" s="6" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="AY3" s="6" t="n">
+        <v>12.239</v>
+      </c>
+      <c r="AZ3" s="6" t="n">
+        <v>11.655</v>
+      </c>
+      <c r="BA3" s="6" t="n">
+        <v>10.742</v>
+      </c>
+      <c r="BB3" s="6" t="n">
+        <v>12.595</v>
+      </c>
+      <c r="BC3" s="6" t="n">
+        <v>12.008</v>
+      </c>
+      <c r="BD3" s="6" t="n">
+        <v>12.359</v>
+      </c>
+      <c r="BE3" s="6" t="n">
+        <v>12.162</v>
+      </c>
+      <c r="BF3" s="6" t="n">
+        <v>12.298</v>
+      </c>
+      <c r="BG3" s="6" t="n">
+        <v>12.465</v>
+      </c>
+      <c r="BH3" s="6" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="BI3" s="6" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="BJ3" s="6" t="n">
+        <v>13.07</v>
+      </c>
+      <c r="BK3" s="6" t="n">
+        <v>12.944</v>
+      </c>
+      <c r="BL3" s="6" t="n">
+        <v>11.754</v>
+      </c>
+      <c r="BM3" s="6" t="n">
+        <v>12.214</v>
+      </c>
+      <c r="BN3" s="6" t="n">
+        <v>13.562</v>
+      </c>
+      <c r="BO3" s="6" t="n">
+        <v>13.444</v>
+      </c>
+      <c r="BP3" s="6" t="n">
+        <v>13.378</v>
+      </c>
+      <c r="BQ3" s="6" t="n">
+        <v>13.142</v>
+      </c>
+      <c r="BR3" s="6" t="n">
+        <v>13.357</v>
+      </c>
+      <c r="BS3" s="6" t="n">
+        <v>13.328</v>
+      </c>
+      <c r="BT3" s="6" t="n">
+        <v>13.813</v>
+      </c>
+      <c r="BU3" s="6" t="n">
+        <v>13.318</v>
+      </c>
+      <c r="BV3" s="6" t="n">
+        <v>14.396</v>
+      </c>
+      <c r="BW3" s="6" t="n">
+        <v>14.532</v>
+      </c>
+      <c r="BX3" s="6" t="n">
+        <v>14.407</v>
+      </c>
+      <c r="BY3" s="6" t="n">
+        <v>12.856</v>
+      </c>
+      <c r="BZ3" s="6" t="n">
+        <v>14.932</v>
+      </c>
+      <c r="CA3" s="6" t="n">
+        <v>15.131</v>
+      </c>
+      <c r="CB3" s="6" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="CC3" s="6" t="n">
+        <v>14.53</v>
+      </c>
+      <c r="CD3" s="6" t="n">
+        <v>14.959</v>
+      </c>
+      <c r="CE3" s="6" t="n">
+        <v>14.96</v>
+      </c>
+      <c r="CF3" s="6" t="n">
+        <v>14.756</v>
+      </c>
+      <c r="CG3" s="6" t="n">
+        <v>16.151</v>
+      </c>
+      <c r="CH3" s="6" t="n">
+        <v>16.258</v>
+      </c>
+      <c r="CI3" s="6" t="n">
+        <v>16.341</v>
+      </c>
+      <c r="CJ3" s="6" t="n">
+        <v>15.971</v>
+      </c>
+      <c r="CK3" s="6" t="n">
+        <v>14.656</v>
+      </c>
+      <c r="CL3" s="6" t="n">
+        <v>16.851</v>
+      </c>
+      <c r="CM3" s="6" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="CN3" s="6" t="n">
+        <v>16.546</v>
+      </c>
+      <c r="CO3" s="6" t="n">
+        <v>16.575</v>
+      </c>
+      <c r="CP3" s="6" t="n">
+        <v>16.798</v>
+      </c>
+      <c r="CQ3" s="6" t="n">
+        <v>15.826</v>
+      </c>
+      <c r="CR3" s="6" t="n">
+        <v>15.572</v>
+      </c>
+      <c r="CS3" s="6" t="n">
+        <v>17.229</v>
+      </c>
+      <c r="CT3" s="6" t="n">
+        <v>16.929</v>
+      </c>
+      <c r="CU3" s="6" t="n">
+        <v>17.078</v>
+      </c>
+      <c r="CV3" s="6" t="n">
+        <v>15.492</v>
+      </c>
+      <c r="CW3" s="6" t="n">
+        <v>16.028</v>
+      </c>
+      <c r="CX3" s="6" t="n">
+        <v>17.786</v>
+      </c>
+      <c r="CY3" s="6" t="n">
+        <v>17.612</v>
+      </c>
+      <c r="CZ3" s="6" t="n">
+        <v>17.183</v>
+      </c>
+      <c r="DA3" s="6" t="n">
+        <v>17.748</v>
+      </c>
+      <c r="DB3" s="6" t="n">
+        <v>17.728</v>
+      </c>
+      <c r="DC3" s="6" t="n">
+        <v>16.913</v>
+      </c>
+      <c r="DD3" s="6" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="DE3" s="6" t="n">
+        <v>18.174</v>
+      </c>
+      <c r="DF3" s="6" t="n">
+        <v>18.833</v>
+      </c>
+      <c r="DG3" s="6" t="n">
+        <v>19.153</v>
+      </c>
+      <c r="DH3" s="6" t="n">
+        <v>18.519</v>
+      </c>
+      <c r="DI3" s="6" t="n">
+        <v>16.193</v>
+      </c>
+      <c r="DJ3" s="6" t="n">
+        <v>19.431</v>
+      </c>
+      <c r="DK3" s="6" t="n">
+        <v>19.109</v>
+      </c>
+      <c r="DL3" s="6" t="n">
+        <v>19.339</v>
+      </c>
+      <c r="DM3" s="6" t="n">
+        <v>19.386</v>
+      </c>
+      <c r="DN3" s="6" t="n">
+        <v>18.963</v>
+      </c>
+      <c r="DO3" s="6" t="n">
+        <v>18.806</v>
+      </c>
+      <c r="DP3" s="6" t="n">
+        <v>19.022</v>
+      </c>
+      <c r="DQ3" s="6" t="n">
+        <v>20.767</v>
+      </c>
+      <c r="DR3" s="6" t="n">
+        <v>21.335</v>
+      </c>
+      <c r="DS3" s="6" t="n">
+        <v>21.483</v>
+      </c>
+      <c r="DT3" s="6" t="n">
+        <v>19.721</v>
+      </c>
+      <c r="DU3" s="6" t="n">
+        <v>19.152</v>
+      </c>
+      <c r="DV3" s="6" t="n">
+        <v>21.947</v>
+      </c>
+      <c r="DW3" s="6" t="n">
+        <v>21.926</v>
+      </c>
+      <c r="DX3" s="6" t="n">
+        <v>22.083</v>
+      </c>
+      <c r="DY3" s="6" t="n">
+        <v>21.848</v>
+      </c>
+      <c r="DZ3" s="6" t="n">
+        <v>21.726</v>
+      </c>
+      <c r="EA3" s="6" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="EB3" s="6" t="n">
+        <v>21.556</v>
+      </c>
+      <c r="EC3" s="6" t="n">
+        <v>23.319</v>
+      </c>
+      <c r="ED3" s="6" t="n">
+        <v>23.693</v>
+      </c>
+      <c r="EE3" s="6" t="n">
+        <v>23.878</v>
+      </c>
+      <c r="EF3" s="6" t="n">
+        <v>22.921</v>
+      </c>
+      <c r="EG3" s="6" t="n">
+        <v>21.183</v>
+      </c>
+      <c r="EH3" s="6" t="n">
+        <v>23.748</v>
+      </c>
+      <c r="EI3" s="6" t="n">
+        <v>24.765</v>
+      </c>
+      <c r="EJ3" s="6" t="n">
+        <v>25.444</v>
+      </c>
+      <c r="EK3" s="6" t="n">
+        <v>23.822</v>
+      </c>
+      <c r="EL3" s="6" t="n">
+        <v>24.388</v>
+      </c>
+      <c r="EM3" s="6" t="n">
+        <v>23.105</v>
+      </c>
+      <c r="EN3" s="6" t="n">
+        <v>23.174</v>
+      </c>
+      <c r="EO3" s="6" t="n">
+        <v>25.084</v>
+      </c>
+      <c r="EP3" s="6" t="n">
+        <v>25.704</v>
+      </c>
+      <c r="EQ3" s="6" t="n">
+        <v>26.289</v>
+      </c>
+      <c r="ER3" s="6" t="n">
+        <v>24.519</v>
+      </c>
+      <c r="ES3" s="6" t="n">
+        <v>22.528</v>
+      </c>
+      <c r="ET3" s="6" t="n">
+        <v>26.293</v>
+      </c>
+      <c r="EU3" s="6" t="n">
+        <v>27.15</v>
+      </c>
+      <c r="EV3" s="6" t="n">
+        <v>26.779</v>
+      </c>
+      <c r="EW3" s="6" t="n">
+        <v>26.825</v>
+      </c>
+      <c r="EX3" s="6" t="n">
+        <v>26.46</v>
+      </c>
+      <c r="EY3" s="6" t="n">
+        <v>25.875</v>
+      </c>
+      <c r="EZ3" s="6" t="n">
+        <v>26.27</v>
+      </c>
+      <c r="FA3" s="6" t="n">
+        <v>28.195</v>
+      </c>
+      <c r="FB3" s="6" t="n">
+        <v>27.391</v>
+      </c>
+      <c r="FC3" s="6" t="n">
+        <v>27.034</v>
+      </c>
+      <c r="FD3" s="6" t="n">
+        <v>23.717</v>
+      </c>
+      <c r="FE3" s="6" t="n">
+        <v>24.335</v>
+      </c>
+      <c r="FF3" s="6" t="n">
+        <v>26.129</v>
+      </c>
+      <c r="FG3" s="6" t="n">
+        <v>26.083</v>
+      </c>
+      <c r="FH3" s="6" t="n">
+        <v>25.635</v>
+      </c>
+      <c r="FI3" s="6" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="FJ3" s="6" t="n">
+        <v>24.332</v>
+      </c>
+      <c r="FK3" s="6" t="n">
+        <v>24.295</v>
+      </c>
+      <c r="FL3" s="6" t="n">
+        <v>27.98</v>
+      </c>
+      <c r="FM3" s="6" t="n">
+        <v>28.178</v>
+      </c>
+      <c r="FN3" s="6" t="n">
+        <v>30.368</v>
+      </c>
+      <c r="FO3" s="6" t="n">
+        <v>31.166</v>
+      </c>
+      <c r="FP3" s="6" t="n">
+        <v>28.501</v>
+      </c>
+      <c r="FQ3" s="6" t="n">
+        <v>26.577</v>
+      </c>
+      <c r="FR3" s="6" t="n">
+        <v>31.262</v>
+      </c>
+      <c r="FS3" s="6" t="n">
+        <v>30.804</v>
+      </c>
+      <c r="FT3" s="6" t="n">
+        <v>31.972</v>
+      </c>
+      <c r="FU3" s="6" t="n">
+        <v>32.585</v>
+      </c>
+      <c r="FV3" s="6" t="n">
+        <v>32.793</v>
+      </c>
+      <c r="FW3" s="6" t="n">
+        <v>31.381</v>
+      </c>
+      <c r="FX3" s="6" t="n">
+        <v>33.705</v>
+      </c>
+      <c r="FY3" s="6" t="n">
+        <v>37.258</v>
+      </c>
+      <c r="FZ3" s="6" t="n">
+        <v>37.984</v>
+      </c>
+      <c r="GA3" s="6" t="n">
+        <v>37.134</v>
+      </c>
+      <c r="GB3" s="6" t="n">
+        <v>36.578</v>
+      </c>
+      <c r="GC3" s="6" t="n">
+        <v>33.909</v>
+      </c>
+      <c r="GD3" s="6" t="n">
+        <v>38.889</v>
+      </c>
+      <c r="GE3" s="6" t="n">
+        <v>37.693</v>
+      </c>
+      <c r="GF3" s="6" t="n">
+        <v>39.666</v>
+      </c>
+      <c r="GG3" s="6" t="n">
+        <v>39.327</v>
+      </c>
+      <c r="GH3" s="6" t="n">
+        <v>39.521</v>
+      </c>
+      <c r="GI3" s="6" t="n">
+        <v>39.27</v>
+      </c>
+      <c r="GJ3" s="6" t="n">
+        <v>38.429</v>
+      </c>
+      <c r="GK3" s="6" t="n">
+        <v>41.155</v>
+      </c>
+      <c r="GL3" s="6" t="n">
+        <v>39.993</v>
+      </c>
+      <c r="GM3" s="6" t="n">
+        <v>39.134</v>
+      </c>
+      <c r="GN3" s="6" t="n">
+        <v>35.485</v>
+      </c>
+      <c r="GO3" s="6" t="n">
+        <v>36.018</v>
+      </c>
+      <c r="GP3" s="6" t="n">
+        <v>39.345</v>
+      </c>
+      <c r="GQ3" s="6" t="n">
+        <v>38.819</v>
+      </c>
+      <c r="GR3" s="6" t="n">
+        <v>39.966</v>
+      </c>
+      <c r="GS3" s="6" t="n">
+        <v>38.612</v>
+      </c>
+      <c r="GT3" s="6" t="n">
+        <v>36.785</v>
+      </c>
+      <c r="GU3" s="6" t="n">
+        <v>36.778</v>
+      </c>
+      <c r="GV3" s="6" t="n">
+        <v>38.863</v>
+      </c>
+      <c r="GW3" s="6" t="n">
+        <v>38.91</v>
+      </c>
+      <c r="GX3" s="6" t="n">
+        <v>40.296</v>
+      </c>
+      <c r="GY3" s="6" t="n">
+        <v>38.505</v>
+      </c>
+      <c r="GZ3" s="6" t="n">
+        <v>39.205</v>
+      </c>
+      <c r="HA3" s="6" t="n">
+        <v>35.074</v>
+      </c>
+      <c r="HB3" s="6" t="n">
+        <v>41.804</v>
+      </c>
+      <c r="HC3" s="6" t="n">
+        <v>42.62</v>
+      </c>
+      <c r="HD3" s="6" t="n">
+        <v>43.27</v>
+      </c>
+      <c r="HE3" s="6" t="n">
+        <v>39.997</v>
+      </c>
+      <c r="HF3" s="6" t="n">
+        <v>41.539</v>
+      </c>
+      <c r="HG3" s="6" t="n">
+        <v>40.746</v>
+      </c>
+      <c r="HH3" s="6" t="n">
+        <v>40.245</v>
+      </c>
+      <c r="HI3" s="6" t="n">
+        <v>44.717</v>
+      </c>
+      <c r="HJ3" s="6" t="n">
+        <v>44.282</v>
+      </c>
+      <c r="HK3" s="6" t="n">
+        <v>43.535</v>
+      </c>
+      <c r="HL3" s="6" t="n">
+        <v>41.549</v>
+      </c>
+      <c r="HM3" s="6" t="n">
+        <v>39.231</v>
+      </c>
+      <c r="HN3" s="6" t="n">
+        <v>44.88</v>
+      </c>
+      <c r="HO3" s="6" t="n">
+        <v>44.134</v>
+      </c>
+      <c r="HP3" s="6" t="n">
+        <v>44.346</v>
+      </c>
+      <c r="HQ3" s="6" t="n">
+        <v>44.438</v>
+      </c>
+      <c r="HR3" s="6" t="n">
+        <v>43.499</v>
+      </c>
+      <c r="HS3" s="6" t="n">
+        <v>42.885</v>
+      </c>
+      <c r="HT3" s="6" t="n">
+        <v>44.203</v>
+      </c>
+      <c r="HU3" s="6" t="n">
+        <v>50.167</v>
+      </c>
+      <c r="HV3" s="6" t="n">
+        <v>48.99</v>
+      </c>
+      <c r="HW3" s="6" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="HX3" s="6" t="n">
+        <v>46.732</v>
+      </c>
+      <c r="HY3" s="6" t="n">
+        <v>48.829</v>
+      </c>
+      <c r="HZ3" s="6" t="n">
+        <v>52.79</v>
+      </c>
+      <c r="IA3" s="6" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="IB3" s="6" t="n">
+        <v>52.693</v>
+      </c>
+      <c r="IC3" s="6" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="ID3" s="6" t="n">
+        <v>49.981</v>
+      </c>
+      <c r="IE3" s="6" t="n">
+        <v>49.48</v>
+      </c>
+      <c r="IF3" s="6" t="n">
+        <v>50.232</v>
+      </c>
+      <c r="IG3" s="6" t="n">
+        <v>54.41</v>
+      </c>
+      <c r="IH3" s="6" t="n">
+        <v>54.574</v>
+      </c>
+      <c r="II3" s="6" t="n">
+        <v>54.216</v>
+      </c>
+      <c r="IJ3" s="6" t="n">
+        <v>53.81</v>
+      </c>
+      <c r="IK3" s="6" t="n">
+        <v>46.747</v>
+      </c>
+      <c r="IL3" s="6" t="n">
+        <v>56.388</v>
+      </c>
+      <c r="IM3" s="6" t="n">
+        <v>55.043</v>
+      </c>
+      <c r="IN3" s="6" t="n">
+        <v>56.668</v>
+      </c>
+      <c r="IO3" s="6" t="n">
+        <v>55.379</v>
+      </c>
+      <c r="IP3" s="6" t="n">
+        <v>55.547</v>
+      </c>
+      <c r="IQ3" s="6" t="n">
+        <v>54.146</v>
+      </c>
+      <c r="IR3" s="6" t="n">
+        <v>54.482</v>
+      </c>
+      <c r="IS3" s="6" t="n">
+        <v>59.863</v>
+      </c>
+      <c r="IT3" s="6" t="n">
+        <v>62.778</v>
+      </c>
+      <c r="IU3" s="6" t="n">
+        <v>61.713</v>
+      </c>
+      <c r="IV3" s="6" t="n">
+        <v>58.854</v>
+      </c>
+      <c r="IW3" s="6" t="n">
+        <v>56.612</v>
+      </c>
+      <c r="IX3" s="6" t="n">
+        <v>63.058</v>
+      </c>
+      <c r="IY3" s="6" t="n">
+        <v>61.488</v>
+      </c>
+      <c r="IZ3" s="6" t="n">
+        <v>63.562</v>
+      </c>
+      <c r="JA3" s="6" t="n">
+        <v>62.498</v>
+      </c>
+      <c r="JB3" s="6" t="n">
+        <v>58.91</v>
+      </c>
+      <c r="JC3" s="6" t="n">
+        <v>60.648</v>
+      </c>
+      <c r="JD3" s="6" t="n">
+        <v>65.804</v>
+      </c>
+      <c r="JE3" s="6" t="n">
+        <v>65.86</v>
+      </c>
+      <c r="JF3" s="6" t="n">
+        <v>68.999</v>
+      </c>
+      <c r="JG3" s="6" t="n">
+        <v>65.02</v>
+      </c>
+      <c r="JH3" s="6" t="n">
+        <v>64.347</v>
+      </c>
+      <c r="JI3" s="6" t="n">
+        <v>57.172</v>
+      </c>
+      <c r="JJ3" s="6" t="n">
+        <v>66.197</v>
+      </c>
+      <c r="JK3" s="6" t="n">
+        <v>66.028</v>
+      </c>
+      <c r="JL3" s="6" t="n">
+        <v>68.158</v>
+      </c>
+      <c r="JM3" s="6" t="n">
+        <v>67.935</v>
+      </c>
+      <c r="JN3" s="6" t="n">
+        <v>67.15</v>
+      </c>
+      <c r="JO3" s="6" t="n">
+        <v>67.655</v>
+      </c>
+      <c r="JP3" s="6" t="n">
+        <v>67.43</v>
+      </c>
+      <c r="JQ3" s="6" t="n">
+        <v>76.903</v>
+      </c>
+      <c r="JR3" s="6" t="n">
+        <v>75.838</v>
+      </c>
+      <c r="JS3" s="6" t="n">
+        <v>73.427</v>
+      </c>
+      <c r="JT3" s="6" t="n">
+        <v>74.717</v>
+      </c>
+      <c r="JU3" s="6" t="n">
+        <v>65.916</v>
+      </c>
+      <c r="JV3" s="6" t="n">
+        <v>75.838</v>
+      </c>
+      <c r="JW3" s="6" t="n">
+        <v>75.053</v>
+      </c>
+      <c r="JX3" s="6" t="n">
+        <v>77.183</v>
+      </c>
+      <c r="JY3" s="6" t="n">
+        <v>74.717</v>
+      </c>
+      <c r="JZ3" s="6" t="n">
+        <v>73.371</v>
+      </c>
+      <c r="KA3" s="6" t="n">
+        <v>70.009</v>
+      </c>
+      <c r="KB3" s="6" t="n">
+        <v>71.466</v>
+      </c>
+      <c r="KC3" s="6" t="n">
+        <v>73.764</v>
+      </c>
+      <c r="KD3" s="6" t="n">
+        <v>62.946</v>
+      </c>
+      <c r="KE3" s="6" t="n">
+        <v>53.249</v>
+      </c>
+      <c r="KF3" s="6" t="n">
+        <v>52.184</v>
+      </c>
+      <c r="KG3" s="6" t="n">
+        <v>57.733</v>
+      </c>
+      <c r="KH3" s="6" t="n">
+        <v>66.982</v>
+      </c>
+      <c r="KI3" s="6" t="n">
+        <v>69.616</v>
+      </c>
+      <c r="KJ3" s="6" t="n">
+        <v>70.681</v>
+      </c>
+      <c r="KK3" s="6" t="n">
+        <v>74.044</v>
+      </c>
+      <c r="KL3" s="6" t="n">
+        <v>76.118</v>
+      </c>
+      <c r="KM3" s="6" t="n">
+        <v>74.213</v>
+      </c>
+      <c r="KN3" s="6" t="n">
+        <v>81.78</v>
+      </c>
+      <c r="KO3" s="6" t="n">
+        <v>79.873</v>
+      </c>
+      <c r="KP3" s="6" t="n">
+        <v>80.266</v>
+      </c>
+      <c r="KQ3" s="6" t="n">
+        <v>80.602</v>
+      </c>
+      <c r="KR3" s="6" t="n">
+        <v>79.242</v>
+      </c>
+      <c r="KS3" s="6" t="n">
+        <v>73.557</v>
+      </c>
+      <c r="KT3" s="6" t="n">
+        <v>86.994</v>
+      </c>
+      <c r="KU3" s="6" t="n">
+        <v>87.252</v>
+      </c>
+      <c r="KV3" s="6" t="n">
+        <v>87.597</v>
+      </c>
+      <c r="KW3" s="6" t="n">
+        <v>88.372</v>
+      </c>
+      <c r="KX3" s="6" t="n">
+        <v>89.664</v>
+      </c>
+      <c r="KY3" s="6" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="KZ3" s="6" t="n">
+        <v>84.496</v>
+      </c>
+      <c r="LA3" s="6" t="n">
+        <v>90.612</v>
+      </c>
+      <c r="LB3" s="6" t="n">
+        <v>90.353</v>
+      </c>
+      <c r="LC3" s="6" t="n">
+        <v>91.042</v>
+      </c>
+      <c r="LD3" s="6" t="n">
+        <v>89.406</v>
+      </c>
+      <c r="LE3" s="6" t="n">
+        <v>79.759</v>
+      </c>
+      <c r="LF3" s="6" t="n">
+        <v>94.918</v>
+      </c>
+      <c r="LG3" s="6" t="n">
+        <v>93.885</v>
+      </c>
+      <c r="LH3" s="6" t="n">
+        <v>94.746</v>
+      </c>
+      <c r="LI3" s="6" t="n">
+        <v>94.488</v>
+      </c>
+      <c r="LJ3" s="6" t="n">
+        <v>93.626</v>
+      </c>
+      <c r="LK3" s="6" t="n">
+        <v>90.095</v>
+      </c>
+      <c r="LL3" s="6" t="n">
+        <v>92.506</v>
+      </c>
+      <c r="LM3" s="6" t="n">
+        <v>97.674</v>
+      </c>
+      <c r="LN3" s="6" t="n">
+        <v>96.382</v>
+      </c>
+      <c r="LO3" s="6" t="n">
+        <v>95.263</v>
+      </c>
+      <c r="LP3" s="6" t="n">
+        <v>88.372</v>
+      </c>
+      <c r="LQ3" s="6" t="n">
+        <v>91.904</v>
+      </c>
+      <c r="LR3" s="6" t="n">
+        <v>97.502</v>
+      </c>
+      <c r="LS3" s="6" t="n">
+        <v>93.54</v>
+      </c>
+      <c r="LT3" s="6" t="n">
+        <v>98.277</v>
+      </c>
+      <c r="LU3" s="6" t="n">
+        <v>96.985</v>
+      </c>
+      <c r="LV3" s="6" t="n">
+        <v>94.315</v>
+      </c>
+      <c r="LW3" s="6" t="n">
+        <v>90.267</v>
+      </c>
+      <c r="LX3" s="6" t="n">
+        <v>92.765</v>
+      </c>
+      <c r="LY3" s="6" t="n">
+        <v>96.727</v>
+      </c>
+      <c r="LZ3" s="6" t="n">
+        <v>100.086</v>
+      </c>
+      <c r="MA3" s="6" t="n">
+        <v>97.933</v>
+      </c>
+      <c r="MB3" s="6" t="n">
+        <v>97.761</v>
+      </c>
+      <c r="MC3" s="6" t="n">
+        <v>85.874</v>
+      </c>
+      <c r="MD3" s="6" t="n">
+        <v>97.674</v>
+      </c>
+      <c r="ME3" s="6" t="n">
+        <v>97.847</v>
+      </c>
+      <c r="MF3" s="6" t="n">
+        <v>100.086</v>
+      </c>
+      <c r="MG3" s="6" t="n">
+        <v>97.071</v>
+      </c>
+      <c r="MH3" s="6" t="n">
+        <v>98.794</v>
+      </c>
+      <c r="MI3" s="6" t="n">
+        <v>95.866</v>
+      </c>
+      <c r="MJ3" s="6" t="n">
+        <v>93.282</v>
+      </c>
+      <c r="MK3" s="6" t="n">
+        <v>102.153</v>
+      </c>
+      <c r="ML3" s="6" t="n">
+        <v>101.464</v>
+      </c>
+      <c r="MM3" s="6" t="n">
+        <v>101.981</v>
+      </c>
+      <c r="MN3" s="6" t="n">
+        <v>96.21</v>
+      </c>
+      <c r="MO3" s="6" t="n">
+        <v>90.267</v>
+      </c>
+      <c r="MP3" s="6" t="n">
+        <v>102.326</v>
+      </c>
+      <c r="MQ3" s="6" t="n">
+        <v>101.464</v>
+      </c>
+      <c r="MR3" s="6" t="n">
+        <v>99.053</v>
+      </c>
+      <c r="MS3" s="6" t="n">
+        <v>99.311</v>
+      </c>
+      <c r="MT3" s="6" t="n">
+        <v>102.326</v>
+      </c>
+      <c r="MU3" s="6" t="n">
+        <v>94.401</v>
+      </c>
+      <c r="MV3" s="6" t="n">
+        <v>94.057</v>
+      </c>
+      <c r="MW3" s="6" t="n">
+        <v>100.258</v>
+      </c>
+      <c r="MX3" s="6" t="n">
+        <v>98.45</v>
+      </c>
+      <c r="MY3" s="6" t="n">
+        <v>103.015</v>
+      </c>
+      <c r="MZ3" s="4" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="NA3" s="4" t="n">
+        <v>86.4</v>
+      </c>
+      <c r="NB3" s="4" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="NC3" s="4" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="ND3" s="4" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="NE3" s="4" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="NF3" s="4" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="NG3" s="4" t="n">
+        <v>95.4</v>
+      </c>
+      <c r="NH3" s="4" t="n">
+        <v>102.9</v>
+      </c>
+      <c r="NI3" s="4" t="n">
+        <v>106.9</v>
+      </c>
+      <c r="NJ3" s="4" t="n">
+        <v>103.8</v>
+      </c>
+      <c r="NK3" s="4" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="NL3" s="4" t="n">
+        <v>97.6</v>
+      </c>
+      <c r="NM3" s="4" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="NN3" s="4" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="NO3" s="4" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="NP3" s="4" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="NQ3" s="4" t="n">
+        <v>108.9</v>
+      </c>
+      <c r="NR3" s="4" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="NS3" s="4" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="NT3" s="4" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="NU3" s="4" t="n">
+        <v>110.6</v>
+      </c>
+      <c r="NV3" s="4" t="n">
+        <v>112.9</v>
+      </c>
+      <c r="NW3" s="4" t="n">
+        <v>112.8</v>
+      </c>
+      <c r="NX3" s="4" t="n">
+        <v>104.1</v>
+      </c>
+      <c r="NY3" s="4" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="NZ3" s="4" t="n">
+        <v>112.8</v>
+      </c>
+      <c r="OA3" s="4" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="OB3" s="4" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="OC3" s="4" t="n">
+        <v>107.9</v>
+      </c>
+      <c r="OD3" s="4" t="n">
+        <v>108.4</v>
+      </c>
+      <c r="OE3" s="4" t="n">
+        <v>107.3</v>
+      </c>
+      <c r="OF3" s="4" t="n">
+        <v>114.3</v>
+      </c>
+      <c r="OG3" s="4" t="n">
+        <v>108.4</v>
+      </c>
+      <c r="OH3" s="4" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="OI3" s="4" t="n">
+        <v>110.6</v>
+      </c>
+      <c r="OJ3" s="4" t="n">
+        <v>107.8</v>
+      </c>
+      <c r="OK3" s="4" t="n">
+        <v>95.6</v>
+      </c>
+      <c r="OL3" s="4" t="n">
+        <v>111.9</v>
+      </c>
+      <c r="OM3" s="4" t="n">
+        <v>111.6</v>
+      </c>
+      <c r="ON3" s="4" t="n">
+        <v>112.9</v>
+      </c>
+      <c r="OO3" s="4" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="OP3" s="4" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="OQ3" s="4" t="n">
+        <v>112.9</v>
+      </c>
+      <c r="OR3" s="4" t="n">
+        <v>111.2</v>
+      </c>
+      <c r="OS3" s="4" t="n">
+        <v>120.9</v>
+      </c>
+      <c r="OT3" s="4" t="n">
+        <v>116.1</v>
+      </c>
+      <c r="OU3" s="4" t="n">
+        <v>112.2</v>
+      </c>
+      <c r="OV3" s="4" t="n">
+        <v>109.8</v>
+      </c>
+      <c r="OW3" s="4" t="n">
+        <v>94.6</v>
+      </c>
+      <c r="OX3" s="4" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="OY3" s="4" t="n">
+        <v>112.3</v>
+      </c>
+      <c r="OZ3" s="4" t="n">
+        <v>115.4</v>
+      </c>
+      <c r="PA3" s="4" t="n">
+        <v>113.8</v>
+      </c>
+      <c r="PB3" s="4" t="n">
+        <v>119.4</v>
+      </c>
+      <c r="PC3" s="4" t="n">
+        <v>112.1</v>
+      </c>
+      <c r="PD3" s="4" t="n">
+        <v>113.8</v>
+      </c>
+      <c r="PE3" s="4" t="n">
+        <v>121.5</v>
+      </c>
+      <c r="PF3" s="4" t="n">
+        <v>120.5</v>
+      </c>
+      <c r="PG3" s="4" t="n">
+        <v>121.4</v>
+      </c>
+      <c r="PH3" s="4" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="PI3" s="4" t="n">
+        <v>107.1</v>
+      </c>
+      <c r="PJ3" s="4" t="n">
+        <v>121.9</v>
+      </c>
+      <c r="PK3" s="4" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="PL3" s="4" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="PM3" s="4" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="PN3" s="4" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="PO3" s="4" t="n">
+        <v>107.7</v>
+      </c>
+      <c r="PP3" s="4" t="n">
+        <v>121.7</v>
+      </c>
+      <c r="PQ3" s="4" t="n">
+        <v>119.6</v>
+      </c>
+      <c r="PR3" s="4" t="n">
+        <v>121.7</v>
+      </c>
+      <c r="PS3" s="4" t="n">
+        <v>126.8</v>
+      </c>
+      <c r="PT3" s="4" t="n">
+        <v>118.5</v>
+      </c>
+      <c r="PU3" s="4" t="n">
+        <v>110.1</v>
+      </c>
+      <c r="PV3" s="4" t="n">
+        <v>129.7</v>
+      </c>
+      <c r="PW3" s="4" t="n">
+        <v>122.8</v>
+      </c>
+      <c r="PX3" s="4" t="n">
+        <v>122.8</v>
+      </c>
+      <c r="PY3" s="4" t="n">
+        <v>127.3</v>
+      </c>
+      <c r="PZ3" s="4" t="n">
+        <v>128.2</v>
+      </c>
+      <c r="QA3" s="4" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="QB3" s="4" t="n">
+        <v>124.8</v>
+      </c>
+      <c r="QC3" s="4" t="n">
+        <v>128.3</v>
+      </c>
+      <c r="QD3" s="4" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="QE3" s="4" t="n">
+        <v>137.7</v>
+      </c>
+      <c r="QF3" s="4" t="n">
+        <v>126.7</v>
+      </c>
+      <c r="QG3" s="4" t="n">
+        <v>119.7</v>
+      </c>
+    </row>
+    <row r="4" ht="20.0" customHeight="true">
+      <c r="A4" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>28.556</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>27.279</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>30.868</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>31.351</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>32.348</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>31.152</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>31.494</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>31.901</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>32.793</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>32.732</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>33.207</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>34.897</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>33.488</v>
+      </c>
+      <c r="Q4" s="6" t="n">
+        <v>32.309</v>
+      </c>
+      <c r="R4" s="6" t="n">
+        <v>37.152</v>
+      </c>
+      <c r="S4" s="6" t="n">
+        <v>38.681</v>
+      </c>
+      <c r="T4" s="6" t="n">
+        <v>39.952</v>
+      </c>
+      <c r="U4" s="6" t="n">
+        <v>39.658</v>
+      </c>
+      <c r="V4" s="6" t="n">
+        <v>40.744</v>
+      </c>
+      <c r="W4" s="6" t="n">
+        <v>40.145</v>
+      </c>
+      <c r="X4" s="6" t="n">
+        <v>41.66</v>
+      </c>
+      <c r="Y4" s="6" t="n">
+        <v>43.117</v>
+      </c>
+      <c r="Z4" s="6" t="n">
+        <v>42.385</v>
+      </c>
+      <c r="AA4" s="6" t="n">
+        <v>44.764</v>
+      </c>
+      <c r="AB4" s="6" t="n">
+        <v>40.444</v>
+      </c>
+      <c r="AC4" s="6" t="n">
+        <v>41.434</v>
+      </c>
+      <c r="AD4" s="6" t="n">
+        <v>47.303</v>
+      </c>
+      <c r="AE4" s="6" t="n">
+        <v>48.529</v>
+      </c>
+      <c r="AF4" s="6" t="n">
+        <v>50.496</v>
+      </c>
+      <c r="AG4" s="6" t="n">
+        <v>51.593</v>
+      </c>
+      <c r="AH4" s="6" t="n">
+        <v>50.868</v>
+      </c>
+      <c r="AI4" s="6" t="n">
+        <v>42.437</v>
+      </c>
+      <c r="AJ4" s="6" t="n">
+        <v>52.891</v>
+      </c>
+      <c r="AK4" s="6" t="n">
+        <v>49.687</v>
+      </c>
+      <c r="AL4" s="6" t="n">
+        <v>53.487</v>
+      </c>
+      <c r="AM4" s="6" t="n">
+        <v>54.982</v>
+      </c>
+      <c r="AN4" s="6" t="n">
+        <v>51.688</v>
+      </c>
+      <c r="AO4" s="6" t="n">
+        <v>48.232</v>
+      </c>
+      <c r="AP4" s="6" t="n">
+        <v>54.438</v>
+      </c>
+      <c r="AQ4" s="6" t="n">
+        <v>51.856</v>
+      </c>
+      <c r="AR4" s="6" t="n">
+        <v>52.985</v>
+      </c>
+      <c r="AS4" s="6" t="n">
+        <v>54.844</v>
+      </c>
+      <c r="AT4" s="6" t="n">
+        <v>55.257</v>
+      </c>
+      <c r="AU4" s="6" t="n">
+        <v>55.63</v>
+      </c>
+      <c r="AV4" s="6" t="n">
+        <v>55.332</v>
+      </c>
+      <c r="AW4" s="6" t="n">
+        <v>57.694</v>
+      </c>
+      <c r="AX4" s="6" t="n">
+        <v>57.052</v>
+      </c>
+      <c r="AY4" s="6" t="n">
+        <v>56.44</v>
+      </c>
+      <c r="AZ4" s="6" t="n">
+        <v>53.042</v>
+      </c>
+      <c r="BA4" s="6" t="n">
+        <v>49.039</v>
+      </c>
+      <c r="BB4" s="6" t="n">
+        <v>56.047</v>
+      </c>
+      <c r="BC4" s="6" t="n">
+        <v>49.644</v>
+      </c>
+      <c r="BD4" s="6" t="n">
+        <v>54.577</v>
+      </c>
+      <c r="BE4" s="6" t="n">
+        <v>56.103</v>
+      </c>
+      <c r="BF4" s="6" t="n">
+        <v>54.309</v>
+      </c>
+      <c r="BG4" s="6" t="n">
+        <v>56.993</v>
+      </c>
+      <c r="BH4" s="6" t="n">
+        <v>54.162</v>
+      </c>
+      <c r="BI4" s="6" t="n">
+        <v>54.375</v>
+      </c>
+      <c r="BJ4" s="6" t="n">
+        <v>54.236</v>
+      </c>
+      <c r="BK4" s="6" t="n">
+        <v>53.314</v>
+      </c>
+      <c r="BL4" s="6" t="n">
+        <v>48.825</v>
+      </c>
+      <c r="BM4" s="6" t="n">
+        <v>51.993</v>
+      </c>
+      <c r="BN4" s="6" t="n">
+        <v>56.182</v>
+      </c>
+      <c r="BO4" s="6" t="n">
+        <v>55.032</v>
+      </c>
+      <c r="BP4" s="6" t="n">
+        <v>53.672</v>
+      </c>
+      <c r="BQ4" s="6" t="n">
+        <v>54.286</v>
+      </c>
+      <c r="BR4" s="6" t="n">
+        <v>54.922</v>
+      </c>
+      <c r="BS4" s="6" t="n">
+        <v>56.259</v>
+      </c>
+      <c r="BT4" s="6" t="n">
+        <v>60.583</v>
+      </c>
+      <c r="BU4" s="6" t="n">
+        <v>54.746</v>
+      </c>
+      <c r="BV4" s="6" t="n">
+        <v>58.568</v>
+      </c>
+      <c r="BW4" s="6" t="n">
+        <v>57.678</v>
+      </c>
+      <c r="BX4" s="6" t="n">
+        <v>56.978</v>
+      </c>
+      <c r="BY4" s="6" t="n">
+        <v>49.677</v>
+      </c>
+      <c r="BZ4" s="6" t="n">
+        <v>56.395</v>
+      </c>
+      <c r="CA4" s="6" t="n">
+        <v>57.793</v>
+      </c>
+      <c r="CB4" s="6" t="n">
+        <v>58.193</v>
+      </c>
+      <c r="CC4" s="6" t="n">
+        <v>53.598</v>
+      </c>
+      <c r="CD4" s="6" t="n">
+        <v>59.162</v>
+      </c>
+      <c r="CE4" s="6" t="n">
+        <v>59.028</v>
+      </c>
+      <c r="CF4" s="6" t="n">
+        <v>58.84</v>
+      </c>
+      <c r="CG4" s="6" t="n">
+        <v>64.318</v>
+      </c>
+      <c r="CH4" s="6" t="n">
+        <v>62.118</v>
+      </c>
+      <c r="CI4" s="6" t="n">
+        <v>59.351</v>
+      </c>
+      <c r="CJ4" s="6" t="n">
+        <v>57.79</v>
+      </c>
+      <c r="CK4" s="6" t="n">
+        <v>53.112</v>
+      </c>
+      <c r="CL4" s="6" t="n">
+        <v>59.021</v>
+      </c>
+      <c r="CM4" s="6" t="n">
+        <v>61.119</v>
+      </c>
+      <c r="CN4" s="6" t="n">
+        <v>59.08</v>
+      </c>
+      <c r="CO4" s="6" t="n">
+        <v>59.743</v>
+      </c>
+      <c r="CP4" s="6" t="n">
+        <v>60.481</v>
+      </c>
+      <c r="CQ4" s="6" t="n">
+        <v>57.694</v>
+      </c>
+      <c r="CR4" s="6" t="n">
+        <v>57.576</v>
+      </c>
+      <c r="CS4" s="6" t="n">
+        <v>61.11</v>
+      </c>
+      <c r="CT4" s="6" t="n">
+        <v>59.151</v>
+      </c>
+      <c r="CU4" s="6" t="n">
+        <v>58.271</v>
+      </c>
+      <c r="CV4" s="6" t="n">
+        <v>53.212</v>
+      </c>
+      <c r="CW4" s="6" t="n">
+        <v>55.288</v>
+      </c>
+      <c r="CX4" s="6" t="n">
+        <v>59.769</v>
+      </c>
+      <c r="CY4" s="6" t="n">
+        <v>58.71</v>
+      </c>
+      <c r="CZ4" s="6" t="n">
+        <v>56.356</v>
+      </c>
+      <c r="DA4" s="6" t="n">
+        <v>58.571</v>
+      </c>
+      <c r="DB4" s="6" t="n">
+        <v>59.239</v>
+      </c>
+      <c r="DC4" s="6" t="n">
+        <v>55.628</v>
+      </c>
+      <c r="DD4" s="6" t="n">
+        <v>59.924</v>
+      </c>
+      <c r="DE4" s="6" t="n">
+        <v>59.722</v>
+      </c>
+      <c r="DF4" s="6" t="n">
+        <v>61.954</v>
+      </c>
+      <c r="DG4" s="6" t="n">
+        <v>63.136</v>
+      </c>
+      <c r="DH4" s="6" t="n">
+        <v>59.286</v>
+      </c>
+      <c r="DI4" s="6" t="n">
+        <v>52.847</v>
+      </c>
+      <c r="DJ4" s="6" t="n">
+        <v>64.67</v>
+      </c>
+      <c r="DK4" s="6" t="n">
+        <v>62.462</v>
+      </c>
+      <c r="DL4" s="6" t="n">
+        <v>62.109</v>
+      </c>
+      <c r="DM4" s="6" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="DN4" s="6" t="n">
+        <v>60.349</v>
+      </c>
+      <c r="DO4" s="6" t="n">
+        <v>60.368</v>
+      </c>
+      <c r="DP4" s="6" t="n">
+        <v>61.396</v>
+      </c>
+      <c r="DQ4" s="6" t="n">
+        <v>65.919</v>
+      </c>
+      <c r="DR4" s="6" t="n">
+        <v>66.79</v>
+      </c>
+      <c r="DS4" s="6" t="n">
+        <v>66.007</v>
+      </c>
+      <c r="DT4" s="6" t="n">
+        <v>62.359</v>
+      </c>
+      <c r="DU4" s="6" t="n">
+        <v>60.884</v>
+      </c>
+      <c r="DV4" s="6" t="n">
+        <v>69.823</v>
+      </c>
+      <c r="DW4" s="6" t="n">
+        <v>66.387</v>
+      </c>
+      <c r="DX4" s="6" t="n">
+        <v>65.123</v>
+      </c>
+      <c r="DY4" s="6" t="n">
+        <v>65.314</v>
+      </c>
+      <c r="DZ4" s="6" t="n">
+        <v>64.846</v>
+      </c>
+      <c r="EA4" s="6" t="n">
+        <v>63.619</v>
+      </c>
+      <c r="EB4" s="6" t="n">
+        <v>64.722</v>
+      </c>
+      <c r="EC4" s="6" t="n">
+        <v>68.424</v>
+      </c>
+      <c r="ED4" s="6" t="n">
+        <v>68.615</v>
+      </c>
+      <c r="EE4" s="6" t="n">
+        <v>65.931</v>
+      </c>
+      <c r="EF4" s="6" t="n">
+        <v>67.123</v>
+      </c>
+      <c r="EG4" s="6" t="n">
+        <v>61.795</v>
+      </c>
+      <c r="EH4" s="6" t="n">
+        <v>70.989</v>
+      </c>
+      <c r="EI4" s="6" t="n">
+        <v>70.675</v>
+      </c>
+      <c r="EJ4" s="6" t="n">
+        <v>70.111</v>
+      </c>
+      <c r="EK4" s="6" t="n">
+        <v>65.104</v>
+      </c>
+      <c r="EL4" s="6" t="n">
+        <v>66.654</v>
+      </c>
+      <c r="EM4" s="6" t="n">
+        <v>65.36</v>
+      </c>
+      <c r="EN4" s="6" t="n">
+        <v>65.49</v>
+      </c>
+      <c r="EO4" s="6" t="n">
+        <v>71.671</v>
+      </c>
+      <c r="EP4" s="6" t="n">
+        <v>69.364</v>
+      </c>
+      <c r="EQ4" s="6" t="n">
+        <v>66.731</v>
+      </c>
+      <c r="ER4" s="6" t="n">
+        <v>62.836</v>
+      </c>
+      <c r="ES4" s="6" t="n">
+        <v>60.367</v>
+      </c>
+      <c r="ET4" s="6" t="n">
+        <v>69.555</v>
+      </c>
+      <c r="EU4" s="6" t="n">
+        <v>70.599</v>
+      </c>
+      <c r="EV4" s="6" t="n">
+        <v>66.384</v>
+      </c>
+      <c r="EW4" s="6" t="n">
+        <v>65.965</v>
+      </c>
+      <c r="EX4" s="6" t="n">
+        <v>64.395</v>
+      </c>
+      <c r="EY4" s="6" t="n">
+        <v>63.52</v>
+      </c>
+      <c r="EZ4" s="6" t="n">
+        <v>65.171</v>
+      </c>
+      <c r="FA4" s="6" t="n">
+        <v>70.485</v>
+      </c>
+      <c r="FB4" s="6" t="n">
+        <v>64.906</v>
+      </c>
+      <c r="FC4" s="6" t="n">
+        <v>61.752</v>
+      </c>
+      <c r="FD4" s="6" t="n">
+        <v>52.469</v>
+      </c>
+      <c r="FE4" s="6" t="n">
+        <v>53.785</v>
+      </c>
+      <c r="FF4" s="6" t="n">
+        <v>55.834</v>
+      </c>
+      <c r="FG4" s="6" t="n">
+        <v>55.273</v>
+      </c>
+      <c r="FH4" s="6" t="n">
+        <v>51.936</v>
+      </c>
+      <c r="FI4" s="6" t="n">
+        <v>51.547</v>
+      </c>
+      <c r="FJ4" s="6" t="n">
+        <v>50.621</v>
+      </c>
+      <c r="FK4" s="6" t="n">
+        <v>47.749</v>
+      </c>
+      <c r="FL4" s="6" t="n">
+        <v>58.814</v>
+      </c>
+      <c r="FM4" s="6" t="n">
+        <v>56.309</v>
+      </c>
+      <c r="FN4" s="6" t="n">
+        <v>57.457</v>
+      </c>
+      <c r="FO4" s="6" t="n">
+        <v>59.964</v>
+      </c>
+      <c r="FP4" s="6" t="n">
+        <v>59.491</v>
+      </c>
+      <c r="FQ4" s="6" t="n">
+        <v>55.107</v>
+      </c>
+      <c r="FR4" s="6" t="n">
+        <v>67.415</v>
+      </c>
+      <c r="FS4" s="6" t="n">
+        <v>64.977</v>
+      </c>
+      <c r="FT4" s="6" t="n">
+        <v>62.327</v>
+      </c>
+      <c r="FU4" s="6" t="n">
+        <v>64.627</v>
+      </c>
+      <c r="FV4" s="6" t="n">
+        <v>66.405</v>
+      </c>
+      <c r="FW4" s="6" t="n">
+        <v>65.872</v>
+      </c>
+      <c r="FX4" s="6" t="n">
+        <v>68.422</v>
+      </c>
+      <c r="FY4" s="6" t="n">
+        <v>72.774</v>
+      </c>
+      <c r="FZ4" s="6" t="n">
+        <v>74.445</v>
+      </c>
+      <c r="GA4" s="6" t="n">
+        <v>74.144</v>
+      </c>
+      <c r="GB4" s="6" t="n">
+        <v>73.659</v>
+      </c>
+      <c r="GC4" s="6" t="n">
+        <v>66.604</v>
+      </c>
+      <c r="GD4" s="6" t="n">
+        <v>75.953</v>
+      </c>
+      <c r="GE4" s="6" t="n">
+        <v>68.121</v>
+      </c>
+      <c r="GF4" s="6" t="n">
+        <v>73.169</v>
+      </c>
+      <c r="GG4" s="6" t="n">
+        <v>69.062</v>
+      </c>
+      <c r="GH4" s="6" t="n">
+        <v>71.14</v>
+      </c>
+      <c r="GI4" s="6" t="n">
+        <v>72.659</v>
+      </c>
+      <c r="GJ4" s="6" t="n">
+        <v>72.436</v>
+      </c>
+      <c r="GK4" s="6" t="n">
+        <v>77.375</v>
+      </c>
+      <c r="GL4" s="6" t="n">
+        <v>75.398</v>
+      </c>
+      <c r="GM4" s="6" t="n">
+        <v>71.903</v>
+      </c>
+      <c r="GN4" s="6" t="n">
+        <v>66.715</v>
+      </c>
+      <c r="GO4" s="6" t="n">
+        <v>68.711</v>
+      </c>
+      <c r="GP4" s="6" t="n">
+        <v>75.019</v>
+      </c>
+      <c r="GQ4" s="6" t="n">
+        <v>72.74</v>
+      </c>
+      <c r="GR4" s="6" t="n">
+        <v>75.008</v>
+      </c>
+      <c r="GS4" s="6" t="n">
+        <v>73.152</v>
+      </c>
+      <c r="GT4" s="6" t="n">
+        <v>71.704</v>
+      </c>
+      <c r="GU4" s="6" t="n">
+        <v>74.634</v>
+      </c>
+      <c r="GV4" s="6" t="n">
+        <v>79.348</v>
+      </c>
+      <c r="GW4" s="6" t="n">
+        <v>77.511</v>
+      </c>
+      <c r="GX4" s="6" t="n">
+        <v>80.279</v>
+      </c>
+      <c r="GY4" s="6" t="n">
+        <v>72.705</v>
+      </c>
+      <c r="GZ4" s="6" t="n">
+        <v>79.009</v>
+      </c>
+      <c r="HA4" s="6" t="n">
+        <v>67.389</v>
+      </c>
+      <c r="HB4" s="6" t="n">
+        <v>81.4</v>
+      </c>
+      <c r="HC4" s="6" t="n">
+        <v>81.886</v>
+      </c>
+      <c r="HD4" s="6" t="n">
+        <v>82.298</v>
+      </c>
+      <c r="HE4" s="6" t="n">
+        <v>72.301</v>
+      </c>
+      <c r="HF4" s="6" t="n">
+        <v>75.538</v>
+      </c>
+      <c r="HG4" s="6" t="n">
+        <v>78.803</v>
+      </c>
+      <c r="HH4" s="6" t="n">
+        <v>77.723</v>
+      </c>
+      <c r="HI4" s="6" t="n">
+        <v>88.37</v>
+      </c>
+      <c r="HJ4" s="6" t="n">
+        <v>85.275</v>
+      </c>
+      <c r="HK4" s="6" t="n">
+        <v>80.228</v>
+      </c>
+      <c r="HL4" s="6" t="n">
+        <v>79.904</v>
+      </c>
+      <c r="HM4" s="6" t="n">
+        <v>74.015</v>
+      </c>
+      <c r="HN4" s="6" t="n">
+        <v>81.968</v>
+      </c>
+      <c r="HO4" s="6" t="n">
+        <v>81.399</v>
+      </c>
+      <c r="HP4" s="6" t="n">
+        <v>76.302</v>
+      </c>
+      <c r="HQ4" s="6" t="n">
+        <v>77.423</v>
+      </c>
+      <c r="HR4" s="6" t="n">
+        <v>73.909</v>
+      </c>
+      <c r="HS4" s="6" t="n">
+        <v>77.297</v>
+      </c>
+      <c r="HT4" s="6" t="n">
+        <v>82.773</v>
+      </c>
+      <c r="HU4" s="6" t="n">
+        <v>94.167</v>
+      </c>
+      <c r="HV4" s="6" t="n">
+        <v>88.346</v>
+      </c>
+      <c r="HW4" s="6" t="n">
+        <v>90.714</v>
+      </c>
+      <c r="HX4" s="6" t="n">
+        <v>79.692</v>
+      </c>
+      <c r="HY4" s="6" t="n">
+        <v>84.071</v>
+      </c>
+      <c r="HZ4" s="6" t="n">
+        <v>90.123</v>
+      </c>
+      <c r="IA4" s="6" t="n">
+        <v>86.887</v>
+      </c>
+      <c r="IB4" s="6" t="n">
+        <v>86.505</v>
+      </c>
+      <c r="IC4" s="6" t="n">
+        <v>85.404</v>
+      </c>
+      <c r="ID4" s="6" t="n">
+        <v>84.054</v>
+      </c>
+      <c r="IE4" s="6" t="n">
+        <v>81.339</v>
+      </c>
+      <c r="IF4" s="6" t="n">
+        <v>87.561</v>
+      </c>
+      <c r="IG4" s="6" t="n">
+        <v>95.87</v>
+      </c>
+      <c r="IH4" s="6" t="n">
+        <v>96.707</v>
+      </c>
+      <c r="II4" s="6" t="n">
+        <v>88.782</v>
+      </c>
+      <c r="IJ4" s="6" t="n">
+        <v>91.396</v>
+      </c>
+      <c r="IK4" s="6" t="n">
+        <v>75.05</v>
+      </c>
+      <c r="IL4" s="6" t="n">
+        <v>94.106</v>
+      </c>
+      <c r="IM4" s="6" t="n">
+        <v>88.777</v>
+      </c>
+      <c r="IN4" s="6" t="n">
+        <v>87.694</v>
+      </c>
+      <c r="IO4" s="6" t="n">
+        <v>88.326</v>
+      </c>
+      <c r="IP4" s="6" t="n">
+        <v>88.235</v>
+      </c>
+      <c r="IQ4" s="6" t="n">
+        <v>84.171</v>
+      </c>
+      <c r="IR4" s="6" t="n">
+        <v>90.493</v>
+      </c>
+      <c r="IS4" s="6" t="n">
+        <v>98.531</v>
+      </c>
+      <c r="IT4" s="6" t="n">
+        <v>101.962</v>
+      </c>
+      <c r="IU4" s="6" t="n">
+        <v>95.009</v>
+      </c>
+      <c r="IV4" s="6" t="n">
+        <v>92.571</v>
+      </c>
+      <c r="IW4" s="6" t="n">
+        <v>89.229</v>
+      </c>
+      <c r="IX4" s="6" t="n">
+        <v>99.344</v>
+      </c>
+      <c r="IY4" s="6" t="n">
+        <v>92.209</v>
+      </c>
+      <c r="IZ4" s="6" t="n">
+        <v>93.112</v>
+      </c>
+      <c r="JA4" s="6" t="n">
+        <v>91.667</v>
+      </c>
+      <c r="JB4" s="6" t="n">
+        <v>80.83</v>
+      </c>
+      <c r="JC4" s="6" t="n">
+        <v>88.326</v>
+      </c>
+      <c r="JD4" s="6" t="n">
+        <v>102.956</v>
+      </c>
+      <c r="JE4" s="6" t="n">
+        <v>93.745</v>
+      </c>
+      <c r="JF4" s="6" t="n">
+        <v>101.421</v>
+      </c>
+      <c r="JG4" s="6" t="n">
+        <v>90.222</v>
+      </c>
+      <c r="JH4" s="6" t="n">
+        <v>96.544</v>
+      </c>
+      <c r="JI4" s="6" t="n">
+        <v>83.9</v>
+      </c>
+      <c r="JJ4" s="6" t="n">
+        <v>96.815</v>
+      </c>
+      <c r="JK4" s="6" t="n">
+        <v>95.731</v>
+      </c>
+      <c r="JL4" s="6" t="n">
+        <v>94.647</v>
+      </c>
+      <c r="JM4" s="6" t="n">
+        <v>93.112</v>
+      </c>
+      <c r="JN4" s="6" t="n">
+        <v>91.758</v>
+      </c>
+      <c r="JO4" s="6" t="n">
+        <v>92.209</v>
+      </c>
+      <c r="JP4" s="6" t="n">
+        <v>90.583</v>
+      </c>
+      <c r="JQ4" s="6" t="n">
+        <v>109.278</v>
+      </c>
+      <c r="JR4" s="6" t="n">
+        <v>105.846</v>
+      </c>
+      <c r="JS4" s="6" t="n">
+        <v>91.758</v>
+      </c>
+      <c r="JT4" s="6" t="n">
+        <v>103.679</v>
+      </c>
+      <c r="JU4" s="6" t="n">
+        <v>85.797</v>
+      </c>
+      <c r="JV4" s="6" t="n">
+        <v>103.588</v>
+      </c>
+      <c r="JW4" s="6" t="n">
+        <v>103.408</v>
+      </c>
+      <c r="JX4" s="6" t="n">
+        <v>98.531</v>
+      </c>
+      <c r="JY4" s="6" t="n">
+        <v>96.815</v>
+      </c>
+      <c r="JZ4" s="6" t="n">
+        <v>98.35</v>
+      </c>
+      <c r="KA4" s="6" t="n">
+        <v>90.403</v>
+      </c>
+      <c r="KB4" s="6" t="n">
+        <v>93.473</v>
+      </c>
+      <c r="KC4" s="6" t="n">
+        <v>106.659</v>
+      </c>
+      <c r="KD4" s="6" t="n">
+        <v>89.951</v>
+      </c>
+      <c r="KE4" s="6" t="n">
+        <v>82.184</v>
+      </c>
+      <c r="KF4" s="6" t="n">
+        <v>80.83</v>
+      </c>
+      <c r="KG4" s="6" t="n">
+        <v>82.455</v>
+      </c>
+      <c r="KH4" s="6" t="n">
+        <v>91.847</v>
+      </c>
+      <c r="KI4" s="6" t="n">
+        <v>92.841</v>
+      </c>
+      <c r="KJ4" s="6" t="n">
+        <v>88.777</v>
+      </c>
+      <c r="KK4" s="6" t="n">
+        <v>94.467</v>
+      </c>
+      <c r="KL4" s="6" t="n">
+        <v>96.454</v>
+      </c>
+      <c r="KM4" s="6" t="n">
+        <v>86.068</v>
+      </c>
+      <c r="KN4" s="6" t="n">
+        <v>104.221</v>
+      </c>
+      <c r="KO4" s="6" t="n">
+        <v>97.628</v>
+      </c>
+      <c r="KP4" s="6" t="n">
+        <v>98.35</v>
+      </c>
+      <c r="KQ4" s="6" t="n">
+        <v>99.524</v>
+      </c>
+      <c r="KR4" s="6" t="n">
+        <v>98.779</v>
+      </c>
+      <c r="KS4" s="6" t="n">
+        <v>88.098</v>
+      </c>
+      <c r="KT4" s="6" t="n">
+        <v>103.764</v>
+      </c>
+      <c r="KU4" s="6" t="n">
+        <v>104.68</v>
+      </c>
+      <c r="KV4" s="6" t="n">
+        <v>98.983</v>
+      </c>
+      <c r="KW4" s="6" t="n">
+        <v>102.035</v>
+      </c>
+      <c r="KX4" s="6" t="n">
+        <v>101.729</v>
+      </c>
+      <c r="KY4" s="6" t="n">
+        <v>96.134</v>
+      </c>
+      <c r="KZ4" s="6" t="n">
+        <v>100.102</v>
+      </c>
+      <c r="LA4" s="6" t="n">
+        <v>110.682</v>
+      </c>
+      <c r="LB4" s="6" t="n">
+        <v>108.342</v>
+      </c>
+      <c r="LC4" s="6" t="n">
+        <v>107.325</v>
+      </c>
+      <c r="LD4" s="6" t="n">
+        <v>109.359</v>
+      </c>
+      <c r="LE4" s="6" t="n">
+        <v>89.725</v>
+      </c>
+      <c r="LF4" s="6" t="n">
+        <v>108.545</v>
+      </c>
+      <c r="LG4" s="6" t="n">
+        <v>101.221</v>
+      </c>
+      <c r="LH4" s="6" t="n">
+        <v>100.305</v>
+      </c>
+      <c r="LI4" s="6" t="n">
+        <v>104.578</v>
+      </c>
+      <c r="LJ4" s="6" t="n">
+        <v>101.322</v>
+      </c>
+      <c r="LK4" s="6" t="n">
+        <v>97.05</v>
+      </c>
+      <c r="LL4" s="6" t="n">
+        <v>100.712</v>
+      </c>
+      <c r="LM4" s="6" t="n">
+        <v>106.816</v>
+      </c>
+      <c r="LN4" s="6" t="n">
+        <v>106.307</v>
+      </c>
+      <c r="LO4" s="6" t="n">
+        <v>105.188</v>
+      </c>
+      <c r="LP4" s="6" t="n">
+        <v>99.39</v>
+      </c>
+      <c r="LQ4" s="6" t="n">
+        <v>102.848</v>
+      </c>
+      <c r="LR4" s="6" t="n">
+        <v>104.374</v>
+      </c>
+      <c r="LS4" s="6" t="n">
+        <v>100.407</v>
+      </c>
+      <c r="LT4" s="6" t="n">
+        <v>101.017</v>
+      </c>
+      <c r="LU4" s="6" t="n">
+        <v>101.119</v>
+      </c>
+      <c r="LV4" s="6" t="n">
+        <v>99.797</v>
+      </c>
+      <c r="LW4" s="6" t="n">
+        <v>93.896</v>
+      </c>
+      <c r="LX4" s="6" t="n">
+        <v>104.476</v>
+      </c>
+      <c r="LY4" s="6" t="n">
+        <v>108.342</v>
+      </c>
+      <c r="LZ4" s="6" t="n">
+        <v>112.106</v>
+      </c>
+      <c r="MA4" s="6" t="n">
+        <v>102.442</v>
+      </c>
+      <c r="MB4" s="6" t="n">
+        <v>110.173</v>
+      </c>
+      <c r="MC4" s="6" t="n">
+        <v>94.1</v>
+      </c>
+      <c r="MD4" s="6" t="n">
+        <v>102.543</v>
+      </c>
+      <c r="ME4" s="6" t="n">
+        <v>102.238</v>
+      </c>
+      <c r="MF4" s="6" t="n">
+        <v>102.95</v>
+      </c>
+      <c r="MG4" s="6" t="n">
+        <v>97.864</v>
+      </c>
+      <c r="MH4" s="6" t="n">
+        <v>98.271</v>
+      </c>
+      <c r="MI4" s="6" t="n">
+        <v>97.558</v>
+      </c>
+      <c r="MJ4" s="6" t="n">
+        <v>93.184</v>
+      </c>
+      <c r="MK4" s="6" t="n">
+        <v>113.835</v>
+      </c>
+      <c r="ML4" s="6" t="n">
+        <v>109.054</v>
+      </c>
+      <c r="MM4" s="6" t="n">
+        <v>103.967</v>
+      </c>
+      <c r="MN4" s="6" t="n">
+        <v>103.459</v>
+      </c>
+      <c r="MO4" s="6" t="n">
+        <v>98.576</v>
+      </c>
+      <c r="MP4" s="6" t="n">
+        <v>108.037</v>
+      </c>
+      <c r="MQ4" s="6" t="n">
+        <v>107.63</v>
+      </c>
+      <c r="MR4" s="6" t="n">
+        <v>98.576</v>
+      </c>
+      <c r="MS4" s="6" t="n">
+        <v>97.457</v>
+      </c>
+      <c r="MT4" s="6" t="n">
+        <v>105.799</v>
+      </c>
+      <c r="MU4" s="6" t="n">
+        <v>91.963</v>
+      </c>
+      <c r="MV4" s="6" t="n">
+        <v>96.541</v>
+      </c>
+      <c r="MW4" s="6" t="n">
+        <v>106.409</v>
+      </c>
+      <c r="MX4" s="6" t="n">
+        <v>103.255</v>
+      </c>
+      <c r="MY4" s="6" t="n">
+        <v>105.086</v>
+      </c>
+      <c r="MZ4" s="4" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="NA4" s="4" t="n">
+        <v>88.1</v>
+      </c>
+      <c r="NB4" s="4" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="NC4" s="4" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="ND4" s="4" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="NE4" s="4" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="NF4" s="4" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="NG4" s="4" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="NH4" s="4" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="NI4" s="4" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="NJ4" s="4" t="n">
+        <v>104.2</v>
+      </c>
+      <c r="NK4" s="4" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="NL4" s="4" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="NM4" s="4" t="n">
+        <v>89.1</v>
+      </c>
+      <c r="NN4" s="4" t="n">
+        <v>109.9</v>
+      </c>
+      <c r="NO4" s="4" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="NP4" s="4" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="NQ4" s="4" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="NR4" s="4" t="n">
+        <v>96.6</v>
+      </c>
+      <c r="NS4" s="4" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="NT4" s="4" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="NU4" s="4" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="NV4" s="4" t="n">
+        <v>103.8</v>
+      </c>
+      <c r="NW4" s="4" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="NX4" s="4" t="n">
+        <v>92.1</v>
+      </c>
+      <c r="NY4" s="4" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="NZ4" s="4" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="OA4" s="4" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="OB4" s="4" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="OC4" s="4" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="OD4" s="4" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="OE4" s="4" t="n">
+        <v>91.6</v>
+      </c>
+      <c r="OF4" s="4" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="OG4" s="4" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="OH4" s="4" t="n">
+        <v>103.4</v>
+      </c>
+      <c r="OI4" s="4" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="OJ4" s="4" t="n">
+        <v>99.4</v>
+      </c>
+      <c r="OK4" s="4" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="OL4" s="4" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="OM4" s="4" t="n">
+        <v>98.1</v>
+      </c>
+      <c r="ON4" s="4" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="OO4" s="4" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="OP4" s="4" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="OQ4" s="4" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="OR4" s="4" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="OS4" s="4" t="n">
+        <v>105.9</v>
+      </c>
+      <c r="OT4" s="4" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="OU4" s="4" t="n">
+        <v>96.9</v>
+      </c>
+      <c r="OV4" s="4" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="OW4" s="4" t="n">
+        <v>81.2</v>
+      </c>
+      <c r="OX4" s="4" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="OY4" s="4" t="n">
+        <v>102.7</v>
+      </c>
+      <c r="OZ4" s="4" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="PA4" s="4" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="PB4" s="4" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="PC4" s="4" t="n">
+        <v>91.4</v>
+      </c>
+      <c r="PD4" s="4" t="n">
+        <v>92.6</v>
+      </c>
+      <c r="PE4" s="4" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="PF4" s="4" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="PG4" s="4" t="n">
+        <v>99.4</v>
+      </c>
+      <c r="PH4" s="4" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="PI4" s="4" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="PJ4" s="4" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="PK4" s="4" t="n">
+        <v>92.9</v>
+      </c>
+      <c r="PL4" s="4" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="PM4" s="4" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="PN4" s="4" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="PO4" s="4" t="n">
+        <v>88.1</v>
+      </c>
+      <c r="PP4" s="4" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="PQ4" s="4" t="n">
+        <v>96.6</v>
+      </c>
+      <c r="PR4" s="4" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="PS4" s="4" t="n">
+        <v>95.9</v>
+      </c>
+      <c r="PT4" s="4" t="n">
+        <v>94.4</v>
+      </c>
+      <c r="PU4" s="4" t="n">
+        <v>84.1</v>
+      </c>
+      <c r="PV4" s="4" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="PW4" s="4" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="PX4" s="4" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="PY4" s="4" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="PZ4" s="4" t="n">
+        <v>97.4</v>
+      </c>
+      <c r="QA4" s="4" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="QB4" s="4" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="QC4" s="4" t="n">
         <v>97.1</v>
       </c>
-      <c r="PS2" s="4" t="n">
-        <v>114.8</v>
-      </c>
-      <c r="PT2" s="4" t="n">
-        <v>93.2</v>
-      </c>
-      <c r="PU2" s="3" t="n">
-        <v>84.0</v>
-      </c>
-      <c r="PV2" s="4" t="n">
-        <v>103.8</v>
-      </c>
-      <c r="PW2" s="4" t="n">
-        <v>105.4</v>
-      </c>
-      <c r="PX2" s="4" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="PY2" s="4" t="n">
-        <v>108.6</v>
-      </c>
-      <c r="PZ2" s="4" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="QA2" s="4" t="n">
-        <v>90.4</v>
-      </c>
-      <c r="QB2" s="4" t="n">
-        <v>92.8</v>
-      </c>
-      <c r="QC2" s="4" t="n">
-        <v>93.4</v>
+      <c r="QD4" s="4" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="QE4" s="4" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="QF4" s="4" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="QG4" s="4" t="n">
+        <v>87.5</v>
       </c>
     </row>
   </sheetData>
@@ -4689,66 +7433,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
